--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44165</v>
+        <v>44160</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>8263</v>
+        <v>6688</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K3" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L3" t="n">
         <v>8000</v>
       </c>
-      <c r="L3" t="n">
-        <v>9000</v>
-      </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
         <v>8000</v>
       </c>
       <c r="M4" t="n">
-        <v>7804</v>
+        <v>7562</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M5" t="n">
-        <v>7562</v>
+        <v>8263</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K6" t="n">
         <v>6500</v>
@@ -798,7 +798,7 @@
         <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>6764</v>
+        <v>6738</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K7" t="n">
         <v>6500</v>
@@ -870,7 +870,7 @@
         <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>6738</v>
+        <v>6764</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6688</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,16 +951,88 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>60</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>25</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K2" t="n">
         <v>6500</v>
@@ -510,7 +510,7 @@
         <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>6688</v>
+        <v>6738</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44166</v>
+        <v>44161</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K3" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>7804</v>
+        <v>6764</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44448</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>7562</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>302</v>
+        <v>580</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,17 +717,17 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
         <v>8000</v>
       </c>
       <c r="L5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M5" t="n">
         <v>8500</v>
       </c>
-      <c r="M5" t="n">
-        <v>8263</v>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44159</v>
+        <v>44165</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M6" t="n">
-        <v>6738</v>
+        <v>8263</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44161</v>
+        <v>44166</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>6764</v>
+        <v>7804</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44448</v>
+        <v>44160</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>6688</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>580</v>
+        <v>268</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L9" t="n">
         <v>8000</v>
       </c>
-      <c r="L9" t="n">
-        <v>9000</v>
-      </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>7562</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>7804</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>312</v>
+        <v>460</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>6688</v>
+        <v>7804</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>80</v>
       </c>
       <c r="K9" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L9" t="n">
         <v>7000</v>
       </c>
-      <c r="L9" t="n">
-        <v>8000</v>
-      </c>
       <c r="M9" t="n">
-        <v>7562</v>
+        <v>6688</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,12 +1027,84 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>80</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7562</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>302</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>25</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44159</v>
+        <v>44473</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>6738</v>
+        <v>9750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K3" t="n">
         <v>6500</v>
@@ -582,7 +582,7 @@
         <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>6764</v>
+        <v>6738</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44448</v>
+        <v>44161</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>6764</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>580</v>
+        <v>271</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
         <v>8000</v>
       </c>
       <c r="L6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M6" t="n">
         <v>8500</v>
       </c>
-      <c r="M6" t="n">
-        <v>8263</v>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44165</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>8263</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>460</v>
+        <v>331</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>7804</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>312</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>6688</v>
+        <v>7804</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>80</v>
       </c>
       <c r="K10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L10" t="n">
         <v>7000</v>
       </c>
-      <c r="L10" t="n">
-        <v>8000</v>
-      </c>
       <c r="M10" t="n">
-        <v>7562</v>
+        <v>6688</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,12 +1099,84 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>80</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7562</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>302</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>25</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44473</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>9750</v>
+        <v>7562</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
         <v>6500</v>
@@ -582,7 +582,7 @@
         <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>6738</v>
+        <v>6688</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44448</v>
+        <v>44473</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44161</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>6764</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>44448</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K9" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>7804</v>
+        <v>6738</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>6688</v>
+        <v>7804</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44162</v>
+        <v>44466</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>7562</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>302</v>
+        <v>460</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44466</v>
+        <v>44476</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,16 +1167,88 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>60</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44473</v>
+        <v>44482</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44161</v>
+        <v>44473</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>6764</v>
+        <v>9750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L7" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>8263</v>
+        <v>6764</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44448</v>
+        <v>44165</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>8263</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>580</v>
+        <v>331</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44159</v>
+        <v>44448</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>6738</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K10" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>7804</v>
+        <v>6738</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
         <v>7500</v>
@@ -1158,7 +1158,7 @@
         <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>7750</v>
+        <v>7804</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44466</v>
+        <v>44476</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,16 +1239,88 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>60</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>25</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44473</v>
+        <v>44484</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44161</v>
+        <v>44473</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>6764</v>
+        <v>9750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L8" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>8263</v>
+        <v>6764</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44448</v>
+        <v>44165</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>8263</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>580</v>
+        <v>331</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44448</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>6738</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K11" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>7804</v>
+        <v>6738</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
         <v>7500</v>
@@ -1230,7 +1230,7 @@
         <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>7750</v>
+        <v>7804</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44476</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,16 +1311,88 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>60</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>25</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
         <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
         <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>8750</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44473</v>
+        <v>44482</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44161</v>
+        <v>44484</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6764</v>
+        <v>8750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44165</v>
+        <v>44473</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L9" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>8263</v>
+        <v>9750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44448</v>
+        <v>44161</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>6764</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>580</v>
+        <v>271</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44159</v>
+        <v>44165</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M11" t="n">
-        <v>6738</v>
+        <v>8263</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44448</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>7804</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>312</v>
+        <v>580</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="K13" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>7750</v>
+        <v>6738</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44466</v>
+        <v>44166</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>11500</v>
+        <v>7804</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,12 +1387,156 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>460</v>
+        <v>312</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44476</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>160</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>25</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>60</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>25</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44161</v>
+        <v>44488</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L11" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>8263</v>
+        <v>6764</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44448</v>
+        <v>44165</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>8263</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>580</v>
+        <v>331</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44159</v>
+        <v>44448</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>6738</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K14" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>7804</v>
+        <v>6738</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
         <v>7500</v>
@@ -1446,7 +1446,7 @@
         <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>7750</v>
+        <v>7804</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44466</v>
+        <v>44476</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,16 +1527,88 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
       </c>
       <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>60</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>25</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44165</v>
+        <v>44489</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,17 +1221,17 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
         <v>8000</v>
       </c>
       <c r="L12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M12" t="n">
         <v>8500</v>
       </c>
-      <c r="M12" t="n">
-        <v>8263</v>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44448</v>
+        <v>44165</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>8263</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>580</v>
+        <v>331</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44466</v>
+        <v>44491</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,16 +1599,88 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>60</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>25</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44482</v>
+        <v>44495</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
         <v>8000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44484</v>
+        <v>44482</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
         <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44473</v>
+        <v>44484</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44488</v>
+        <v>44473</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44161</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44489</v>
+        <v>44161</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>6764</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44165</v>
+        <v>44489</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,17 +1293,17 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
         <v>8000</v>
       </c>
       <c r="L13" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M13" t="n">
         <v>8500</v>
       </c>
-      <c r="M13" t="n">
-        <v>8263</v>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44165</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M14" t="n">
-        <v>6738</v>
+        <v>8263</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K15" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>7804</v>
+        <v>6738</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="K16" t="n">
         <v>7500</v>
@@ -1518,7 +1518,7 @@
         <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>7750</v>
+        <v>7804</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44491</v>
+        <v>44476</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L17" t="n">
         <v>8000</v>
       </c>
-      <c r="L17" t="n">
-        <v>9000</v>
-      </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44466</v>
+        <v>44491</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,16 +1671,88 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>60</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>25</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>7562</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44160</v>
+        <v>44165</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K3" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M3" t="n">
-        <v>6688</v>
+        <v>8263</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44167</v>
+        <v>44489</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44487</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
         <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
         <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44495</v>
+        <v>44161</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>6764</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44482</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L8" t="n">
         <v>8000</v>
       </c>
-      <c r="L8" t="n">
-        <v>9000</v>
-      </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>7562</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44484</v>
+        <v>44159</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K9" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>8750</v>
+        <v>6738</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44473</v>
+        <v>44160</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>9750</v>
+        <v>6688</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44161</v>
+        <v>44476</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>6764</v>
+        <v>7750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44489</v>
+        <v>44482</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
         <v>8000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L14" t="n">
         <v>8000</v>
       </c>
-      <c r="L14" t="n">
-        <v>8500</v>
-      </c>
       <c r="M14" t="n">
-        <v>8263</v>
+        <v>7804</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44159</v>
+        <v>44487</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>6738</v>
+        <v>8000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44166</v>
+        <v>44487</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>7804</v>
+        <v>9000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44476</v>
+        <v>44473</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44491</v>
+        <v>44484</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L18" t="n">
         <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44466</v>
+        <v>44491</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
         <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44473</v>
+        <v>44487</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44491</v>
+        <v>44484</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L19" t="n">
         <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,12 +1747,84 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
       </c>
       <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>60</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>25</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
         <v>8000</v>
@@ -1825,6 +1825,78 @@
         <v>25</v>
       </c>
       <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>60</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>25</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44504</v>
+        <v>44511</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L15" t="n">
         <v>8000</v>
       </c>
-      <c r="L15" t="n">
-        <v>9000</v>
-      </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
         <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44487</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44509</v>
+        <v>44484</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L20" t="n">
         <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
         <v>8000</v>
@@ -1897,6 +1897,78 @@
         <v>25</v>
       </c>
       <c r="R21" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>60</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>25</v>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44160</v>
+        <v>44512</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>6688</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44466</v>
+        <v>44160</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>6688</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>460</v>
+        <v>268</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44476</v>
+        <v>44466</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L13" t="n">
         <v>8000</v>
       </c>
-      <c r="L13" t="n">
-        <v>9000</v>
-      </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44166</v>
+        <v>44482</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L15" t="n">
         <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>7804</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44504</v>
+        <v>44511</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L16" t="n">
         <v>8000</v>
       </c>
-      <c r="L16" t="n">
-        <v>9000</v>
-      </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
         <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44473</v>
+        <v>44487</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44509</v>
+        <v>44484</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L21" t="n">
         <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
         <v>8000</v>
@@ -1969,6 +1969,78 @@
         <v>25</v>
       </c>
       <c r="R22" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>60</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>25</v>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44515</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L2" t="n">
         <v>8000</v>
       </c>
-      <c r="L2" t="n">
-        <v>9000</v>
-      </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44165</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,17 +573,17 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>8000</v>
       </c>
       <c r="L3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M3" t="n">
         <v>8500</v>
       </c>
-      <c r="M3" t="n">
-        <v>8263</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44489</v>
+        <v>44165</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
         <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>8263</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44489</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44488</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44161</v>
+        <v>44488</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K8" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L8" t="n">
         <v>7000</v>
       </c>
-      <c r="L8" t="n">
-        <v>8000</v>
-      </c>
       <c r="M8" t="n">
-        <v>7562</v>
+        <v>6764</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44159</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>6738</v>
+        <v>7562</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44512</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L10" t="n">
         <v>7000</v>
       </c>
-      <c r="L10" t="n">
-        <v>8000</v>
-      </c>
       <c r="M10" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44160</v>
+        <v>44512</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>6688</v>
+        <v>7500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44466</v>
+        <v>44160</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>11500</v>
+        <v>6688</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>460</v>
+        <v>268</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44476</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L14" t="n">
         <v>8000</v>
       </c>
-      <c r="L14" t="n">
-        <v>9000</v>
-      </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44166</v>
+        <v>44482</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K16" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L16" t="n">
         <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>7804</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44504</v>
+        <v>44511</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L17" t="n">
         <v>8000</v>
       </c>
-      <c r="L17" t="n">
-        <v>9000</v>
-      </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
         <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44473</v>
+        <v>44487</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44509</v>
+        <v>44484</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L22" t="n">
         <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
         <v>8000</v>
@@ -2041,6 +2041,78 @@
         <v>25</v>
       </c>
       <c r="R23" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E24" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>60</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>25</v>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L23" t="n">
         <v>8000</v>
       </c>
-      <c r="L23" t="n">
-        <v>9000</v>
-      </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>8000</v>
@@ -2113,6 +2113,78 @@
         <v>25</v>
       </c>
       <c r="R24" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>60</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>25</v>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44515</v>
+        <v>44165</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M2" t="n">
-        <v>7500</v>
+        <v>8263</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44165</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L4" t="n">
         <v>8000</v>
       </c>
-      <c r="L4" t="n">
-        <v>8500</v>
-      </c>
       <c r="M4" t="n">
-        <v>8263</v>
+        <v>7500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44489</v>
+        <v>44160</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44476</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L6" t="n">
         <v>8000</v>
       </c>
-      <c r="L6" t="n">
-        <v>9000</v>
-      </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44161</v>
+        <v>44484</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6764</v>
+        <v>8750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44162</v>
+        <v>44473</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>7562</v>
+        <v>9750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44160</v>
+        <v>44489</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>6688</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44482</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44476</v>
+        <v>44516</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
         <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44482</v>
+        <v>44162</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L15" t="n">
         <v>8000</v>
       </c>
-      <c r="L15" t="n">
-        <v>9000</v>
-      </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>7562</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44511</v>
+        <v>44487</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
         <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44504</v>
+        <v>44487</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
         <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44487</v>
+        <v>44509</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
         <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44473</v>
+        <v>44491</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44484</v>
+        <v>44166</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K22" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>8750</v>
+        <v>7804</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44516</v>
+        <v>44495</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44509</v>
+        <v>44161</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>6764</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44491</v>
+        <v>44517</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,34 +2157,106 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>25</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L26" t="n">
         <v>8000</v>
       </c>
-      <c r="L25" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M25" t="n">
-        <v>8500</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>340</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>25</v>
-      </c>
-      <c r="R25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>25</v>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44504</v>
+        <v>44518</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1800,13 +1800,13 @@
         <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44491</v>
+        <v>44504</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44495</v>
+        <v>44166</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K23" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L23" t="n">
         <v>8000</v>
       </c>
-      <c r="L23" t="n">
-        <v>9000</v>
-      </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44161</v>
+        <v>44495</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L25" t="n">
         <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2232,31 +2232,103 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L26" t="n">
         <v>7000</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>25</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="E27" t="n">
+        <v>16</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L27" t="n">
         <v>8000</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M27" t="n">
         <v>7500</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P26" t="n">
+      <c r="P27" t="n">
         <v>300</v>
       </c>
-      <c r="Q26" t="n">
-        <v>25</v>
-      </c>
-      <c r="R26" t="inlineStr">
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
+      <c r="R27" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
         <v>8000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44516</v>
+        <v>44482</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>7000</v>
@@ -1446,7 +1446,7 @@
         <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>7562</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L16" t="n">
         <v>8000</v>
       </c>
-      <c r="L16" t="n">
-        <v>9000</v>
-      </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>7562</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44487</v>
+        <v>44167</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
         <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44509</v>
+        <v>44487</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
         <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44518</v>
+        <v>44509</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44504</v>
+        <v>44518</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44491</v>
+        <v>44504</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44495</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K24" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L24" t="n">
         <v>8000</v>
       </c>
-      <c r="L24" t="n">
-        <v>9000</v>
-      </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44161</v>
+        <v>44495</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L26" t="n">
         <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2304,31 +2304,103 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L27" t="n">
         <v>7000</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="E28" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>100</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L28" t="n">
         <v>8000</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M28" t="n">
         <v>7500</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P27" t="n">
+      <c r="P28" t="n">
         <v>300</v>
       </c>
-      <c r="Q27" t="n">
-        <v>25</v>
-      </c>
-      <c r="R27" t="inlineStr">
+      <c r="Q28" t="n">
+        <v>25</v>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44495</v>
+        <v>44166</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K25" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L25" t="n">
         <v>8000</v>
       </c>
-      <c r="L25" t="n">
-        <v>9000</v>
-      </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44161</v>
+        <v>44495</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L27" t="n">
         <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2376,31 +2376,103 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L28" t="n">
         <v>7000</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>25</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L29" t="n">
         <v>8000</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M29" t="n">
         <v>7500</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P28" t="n">
+      <c r="P29" t="n">
         <v>300</v>
       </c>
-      <c r="Q28" t="n">
-        <v>25</v>
-      </c>
-      <c r="R28" t="inlineStr">
+      <c r="Q29" t="n">
+        <v>25</v>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44504</v>
+        <v>44523</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44495</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K26" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L26" t="n">
         <v>8000</v>
       </c>
-      <c r="L26" t="n">
-        <v>9000</v>
-      </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44161</v>
+        <v>44495</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L28" t="n">
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2448,31 +2448,103 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L29" t="n">
         <v>7000</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>25</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>100</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L30" t="n">
         <v>8000</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M30" t="n">
         <v>7500</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P29" t="n">
+      <c r="P30" t="n">
         <v>300</v>
       </c>
-      <c r="Q29" t="n">
-        <v>25</v>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="Q30" t="n">
+        <v>25</v>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44504</v>
+        <v>44524</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44495</v>
+        <v>44166</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K27" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L27" t="n">
         <v>8000</v>
       </c>
-      <c r="L27" t="n">
-        <v>9000</v>
-      </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44161</v>
+        <v>44495</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L29" t="n">
         <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2520,31 +2520,103 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L30" t="n">
         <v>7000</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>25</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="E31" t="n">
+        <v>16</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L31" t="n">
         <v>8000</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M31" t="n">
         <v>7500</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P30" t="n">
+      <c r="P31" t="n">
         <v>300</v>
       </c>
-      <c r="Q30" t="n">
-        <v>25</v>
-      </c>
-      <c r="R30" t="inlineStr">
+      <c r="Q31" t="n">
+        <v>25</v>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
         <v>6000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
         <v>8000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44516</v>
+        <v>44482</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
         <v>7000</v>
@@ -1518,7 +1518,7 @@
         <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>7562</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L17" t="n">
         <v>8000</v>
       </c>
-      <c r="L17" t="n">
-        <v>9000</v>
-      </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>7562</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44487</v>
+        <v>44167</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
         <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44509</v>
+        <v>44487</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
         <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44518</v>
+        <v>44509</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44523</v>
+        <v>44518</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
         <v>6000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
         <v>6000</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44504</v>
+        <v>44524</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44495</v>
+        <v>44166</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K28" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L28" t="n">
         <v>8000</v>
       </c>
-      <c r="L28" t="n">
-        <v>9000</v>
-      </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44161</v>
+        <v>44495</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L30" t="n">
         <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2592,31 +2592,103 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L31" t="n">
         <v>7000</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>25</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>100</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L32" t="n">
         <v>8000</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M32" t="n">
         <v>7500</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P31" t="n">
+      <c r="P32" t="n">
         <v>300</v>
       </c>
-      <c r="Q31" t="n">
-        <v>25</v>
-      </c>
-      <c r="R31" t="inlineStr">
+      <c r="Q32" t="n">
+        <v>25</v>
+      </c>
+      <c r="R32" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44523</v>
+        <v>44529</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
         <v>6000</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
         <v>6000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44504</v>
+        <v>44524</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44495</v>
+        <v>44166</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K29" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L29" t="n">
         <v>8000</v>
       </c>
-      <c r="L29" t="n">
-        <v>9000</v>
-      </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44161</v>
+        <v>44495</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L31" t="n">
         <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2664,31 +2664,103 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L32" t="n">
         <v>7000</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>25</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="E33" t="n">
+        <v>16</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L33" t="n">
         <v>8000</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M33" t="n">
         <v>7500</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P32" t="n">
+      <c r="P33" t="n">
         <v>300</v>
       </c>
-      <c r="Q32" t="n">
-        <v>25</v>
-      </c>
-      <c r="R32" t="inlineStr">
+      <c r="Q33" t="n">
+        <v>25</v>
+      </c>
+      <c r="R33" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44160</v>
+        <v>44530</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
         <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>6688</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44476</v>
+        <v>44160</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>7750</v>
+        <v>6688</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44476</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44473</v>
+        <v>44484</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44473</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>6738</v>
+        <v>9750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44512</v>
+        <v>44159</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K11" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L11" t="n">
         <v>7000</v>
       </c>
-      <c r="L11" t="n">
-        <v>8000</v>
-      </c>
       <c r="M11" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44512</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
         <v>6000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
         <v>8000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44516</v>
+        <v>44482</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
         <v>7000</v>
@@ -1590,7 +1590,7 @@
         <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>7562</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L18" t="n">
         <v>8000</v>
       </c>
-      <c r="L18" t="n">
-        <v>9000</v>
-      </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>7562</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44487</v>
+        <v>44167</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
         <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44509</v>
+        <v>44487</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L21" t="n">
         <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44518</v>
+        <v>44509</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44529</v>
+        <v>44518</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
         <v>6000</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44523</v>
+        <v>44529</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>6000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
         <v>6000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44504</v>
+        <v>44524</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44495</v>
+        <v>44166</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K30" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L30" t="n">
         <v>8000</v>
       </c>
-      <c r="L30" t="n">
-        <v>9000</v>
-      </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44161</v>
+        <v>44495</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K31" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M31" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L32" t="n">
         <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,31 +2736,103 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L33" t="n">
         <v>7000</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>25</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="E34" t="n">
+        <v>16</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>100</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L34" t="n">
         <v>8000</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M34" t="n">
         <v>7500</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P33" t="n">
+      <c r="P34" t="n">
         <v>300</v>
       </c>
-      <c r="Q33" t="n">
-        <v>25</v>
-      </c>
-      <c r="R33" t="inlineStr">
+      <c r="Q34" t="n">
+        <v>25</v>
+      </c>
+      <c r="R34" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>8263</v>
+        <v>6764</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L3" t="n">
         <v>8000</v>
       </c>
-      <c r="L3" t="n">
-        <v>9000</v>
-      </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>7562</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44504</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44530</v>
+        <v>44466</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44160</v>
+        <v>44516</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>6688</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44476</v>
+        <v>44488</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44484</v>
+        <v>44523</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44473</v>
+        <v>44482</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44159</v>
+        <v>44524</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
         <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>6738</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44512</v>
+        <v>44495</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44526</v>
+        <v>44511</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44515</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44489</v>
+        <v>44517</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
         <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44516</v>
+        <v>44487</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M18" t="n">
-        <v>7562</v>
+        <v>8263</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44167</v>
+        <v>44530</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1800,13 +1800,13 @@
         <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>8000</v>
+        <v>8750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44487</v>
+        <v>44476</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>9000</v>
+        <v>7750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44509</v>
+        <v>44159</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>6738</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44518</v>
+        <v>44529</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
         <v>6000</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44529</v>
+        <v>44518</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
         <v>6000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44524</v>
+        <v>44489</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44504</v>
+        <v>44473</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2304,13 +2304,13 @@
         <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44522</v>
+        <v>44166</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>7804</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44166</v>
+        <v>44512</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
         <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>7804</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44495</v>
+        <v>44160</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L31" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K32" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44517</v>
+        <v>44509</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44515</v>
+        <v>44491</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44515</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L14" t="n">
         <v>7000</v>
       </c>
-      <c r="L14" t="n">
-        <v>8000</v>
-      </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44165</v>
+        <v>44487</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>8263</v>
+        <v>9000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44530</v>
+        <v>44165</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44484</v>
+        <v>44530</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44476</v>
+        <v>44484</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44159</v>
+        <v>44476</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>6738</v>
+        <v>7750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44529</v>
+        <v>44159</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L23" t="n">
         <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>6738</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44518</v>
+        <v>44529</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>6000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
         <v>6000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44473</v>
+        <v>44489</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2304,13 +2304,13 @@
         <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44166</v>
+        <v>44473</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L28" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M28" t="n">
-        <v>7804</v>
+        <v>9750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44522</v>
+        <v>44166</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>7804</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44512</v>
+        <v>44522</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2520,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L30" t="n">
         <v>7000</v>
       </c>
-      <c r="L30" t="n">
-        <v>8000</v>
-      </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44160</v>
+        <v>44512</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>6688</v>
+        <v>7500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44509</v>
+        <v>44167</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
         <v>8000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
         <v>8000</v>
@@ -2833,6 +2833,78 @@
         <v>25</v>
       </c>
       <c r="R34" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E35" t="n">
+        <v>16</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>60</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>25</v>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44495</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44511</v>
+        <v>44495</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44511</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44515</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L15" t="n">
         <v>7000</v>
       </c>
-      <c r="L15" t="n">
-        <v>8000</v>
-      </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44165</v>
+        <v>44487</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>8263</v>
+        <v>9000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44530</v>
+        <v>44165</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44484</v>
+        <v>44530</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44476</v>
+        <v>44484</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K22" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44159</v>
+        <v>44476</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>6738</v>
+        <v>7750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44529</v>
+        <v>44159</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L24" t="n">
         <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>6738</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44518</v>
+        <v>44529</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
         <v>6000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
         <v>6000</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44489</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2376,13 +2376,13 @@
         <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44166</v>
+        <v>44473</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>7804</v>
+        <v>9750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44522</v>
+        <v>44166</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>7804</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44512</v>
+        <v>44522</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2592,13 +2592,13 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L31" t="n">
         <v>7000</v>
       </c>
-      <c r="L31" t="n">
-        <v>8000</v>
-      </c>
       <c r="M31" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44160</v>
+        <v>44512</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>6688</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44509</v>
+        <v>44167</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
         <v>8000</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
         <v>8000</v>
@@ -2905,6 +2905,78 @@
         <v>25</v>
       </c>
       <c r="R35" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>60</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>25</v>
+      </c>
+      <c r="R36" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44466</v>
+        <v>44537</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44516</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44488</v>
+        <v>44516</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L7" t="n">
         <v>8000</v>
       </c>
-      <c r="L7" t="n">
-        <v>9000</v>
-      </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44488</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44523</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
         <v>6000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44482</v>
+        <v>44523</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44524</v>
+        <v>44482</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44536</v>
+        <v>44524</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
         <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44495</v>
+        <v>44536</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44511</v>
+        <v>44495</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44533</v>
+        <v>44511</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44515</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L16" t="n">
         <v>7000</v>
       </c>
-      <c r="L16" t="n">
-        <v>8000</v>
-      </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44165</v>
+        <v>44487</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>8263</v>
+        <v>9000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44530</v>
+        <v>44165</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44484</v>
+        <v>44530</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44476</v>
+        <v>44484</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44159</v>
+        <v>44476</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>6738</v>
+        <v>7750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44529</v>
+        <v>44159</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L25" t="n">
         <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>6738</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44518</v>
+        <v>44529</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
         <v>6000</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
         <v>6000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44473</v>
+        <v>44489</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2448,13 +2448,13 @@
         <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44166</v>
+        <v>44473</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>7804</v>
+        <v>9750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44522</v>
+        <v>44166</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>7804</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44512</v>
+        <v>44522</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2664,13 +2664,13 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L32" t="n">
         <v>7000</v>
       </c>
-      <c r="L32" t="n">
-        <v>8000</v>
-      </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44160</v>
+        <v>44512</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>6688</v>
+        <v>7500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44509</v>
+        <v>44167</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
         <v>8000</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
         <v>8000</v>
@@ -2977,6 +2977,78 @@
         <v>25</v>
       </c>
       <c r="R36" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E37" t="n">
+        <v>16</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>60</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>25</v>
+      </c>
+      <c r="R37" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44487</v>
+        <v>44540</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44165</v>
+        <v>44487</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L21" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>8263</v>
+        <v>9000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44530</v>
+        <v>44165</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44484</v>
+        <v>44530</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44476</v>
+        <v>44484</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44159</v>
+        <v>44476</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M25" t="n">
-        <v>6738</v>
+        <v>7750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44529</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L26" t="n">
         <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>6738</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44518</v>
+        <v>44529</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
         <v>6000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
         <v>6000</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44473</v>
+        <v>44489</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2520,13 +2520,13 @@
         <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44166</v>
+        <v>44473</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K31" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>7804</v>
+        <v>9750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44522</v>
+        <v>44166</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>7804</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44512</v>
+        <v>44522</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L33" t="n">
         <v>7000</v>
       </c>
-      <c r="L33" t="n">
-        <v>8000</v>
-      </c>
       <c r="M33" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44160</v>
+        <v>44512</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>6688</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L35" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44509</v>
+        <v>44167</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
         <v>8000</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
         <v>8000</v>
@@ -3049,6 +3049,78 @@
         <v>25</v>
       </c>
       <c r="R37" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>60</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>25</v>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44161</v>
+        <v>44504</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44522</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L3" t="n">
         <v>7000</v>
       </c>
-      <c r="L3" t="n">
-        <v>8000</v>
-      </c>
       <c r="M3" t="n">
-        <v>7562</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44504</v>
+        <v>44466</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44537</v>
+        <v>44509</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44159</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>6738</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44516</v>
+        <v>44515</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44526</v>
+        <v>44524</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44523</v>
+        <v>44517</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>6000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L11" t="n">
         <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44524</v>
+        <v>44530</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44536</v>
+        <v>44512</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44495</v>
+        <v>44537</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44511</v>
+        <v>44487</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
         <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44487</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44515</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44517</v>
+        <v>44162</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44540</v>
+        <v>44166</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K19" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>6750</v>
+        <v>7804</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44487</v>
+        <v>44482</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
         <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44487</v>
+        <v>44165</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K21" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M21" t="n">
-        <v>9000</v>
+        <v>8263</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44165</v>
+        <v>44516</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L22" t="n">
         <v>8000</v>
       </c>
-      <c r="L22" t="n">
-        <v>8500</v>
-      </c>
       <c r="M22" t="n">
-        <v>8263</v>
+        <v>7500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L23" t="n">
         <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44484</v>
+        <v>44495</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
         <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44476</v>
+        <v>44489</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>44526</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
         <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>6738</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44529</v>
+        <v>44476</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44518</v>
+        <v>44167</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2376,13 +2376,13 @@
         <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44519</v>
+        <v>44161</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L29" t="n">
         <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44489</v>
+        <v>44160</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44473</v>
+        <v>44491</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2592,13 +2592,13 @@
         <v>60</v>
       </c>
       <c r="K31" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M31" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>7804</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44512</v>
+        <v>44473</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44160</v>
+        <v>44536</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2886,7 +2886,7 @@
         <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>6688</v>
+        <v>6750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44167</v>
+        <v>44511</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L36" t="n">
         <v>8000</v>
       </c>
-      <c r="L36" t="n">
-        <v>9000</v>
-      </c>
       <c r="M36" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44509</v>
+        <v>44518</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L37" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44491</v>
+        <v>44540</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K30" t="n">
         <v>6500</v>
@@ -2526,7 +2526,7 @@
         <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>6688</v>
+        <v>6764</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44491</v>
+        <v>44160</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L31" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44519</v>
+        <v>44491</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44529</v>
+        <v>44519</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
         <v>6000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L36" t="n">
         <v>7000</v>
       </c>
-      <c r="L36" t="n">
-        <v>8000</v>
-      </c>
       <c r="M36" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44518</v>
+        <v>44511</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,34 +3093,106 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L38" t="n">
         <v>7000</v>
       </c>
       <c r="M38" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>25</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E39" t="n">
+        <v>16</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>100</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M39" t="n">
         <v>6750</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P38" t="n">
+      <c r="P39" t="n">
         <v>270</v>
       </c>
-      <c r="Q38" t="n">
-        <v>25</v>
-      </c>
-      <c r="R38" t="inlineStr">
+      <c r="Q39" t="n">
+        <v>25</v>
+      </c>
+      <c r="R39" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44482</v>
+        <v>44566</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44165</v>
+        <v>44482</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,17 +1869,17 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
         <v>8000</v>
       </c>
       <c r="L21" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M21" t="n">
         <v>8500</v>
       </c>
-      <c r="M21" t="n">
-        <v>8263</v>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44516</v>
+        <v>44165</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M22" t="n">
-        <v>7500</v>
+        <v>8263</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44533</v>
+        <v>44516</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44495</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44489</v>
+        <v>44495</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44526</v>
+        <v>44489</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44476</v>
+        <v>44526</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L27" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44553</v>
+        <v>44476</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M28" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K31" t="n">
         <v>6500</v>
@@ -2598,7 +2598,7 @@
         <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>6688</v>
+        <v>6764</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44491</v>
+        <v>44160</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44519</v>
+        <v>44491</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44529</v>
+        <v>44519</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
         <v>6000</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L37" t="n">
         <v>7000</v>
       </c>
-      <c r="L37" t="n">
-        <v>8000</v>
-      </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44518</v>
+        <v>44511</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,34 +3165,106 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L39" t="n">
         <v>7000</v>
       </c>
       <c r="M39" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>25</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E40" t="n">
+        <v>16</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>100</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M40" t="n">
         <v>6750</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P39" t="n">
+      <c r="P40" t="n">
         <v>270</v>
       </c>
-      <c r="Q39" t="n">
-        <v>25</v>
-      </c>
-      <c r="R39" t="inlineStr">
+      <c r="Q40" t="n">
+        <v>25</v>
+      </c>
+      <c r="R40" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44504</v>
+        <v>44536</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44466</v>
+        <v>44553</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44509</v>
+        <v>44566</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44159</v>
+        <v>44518</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
         <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>6738</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44515</v>
+        <v>44165</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>8263</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44523</v>
+        <v>44484</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44524</v>
+        <v>44537</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
         <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44517</v>
+        <v>44504</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44484</v>
+        <v>44159</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K11" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>8750</v>
+        <v>6738</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44530</v>
+        <v>44487</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44512</v>
+        <v>44487</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44537</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
         <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44487</v>
+        <v>44166</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L15" t="n">
         <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>8000</v>
+        <v>7804</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44487</v>
+        <v>44530</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44516</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L17" t="n">
         <v>8000</v>
       </c>
-      <c r="L17" t="n">
-        <v>9000</v>
-      </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44162</v>
+        <v>44540</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L18" t="n">
         <v>7000</v>
       </c>
-      <c r="L18" t="n">
-        <v>8000</v>
-      </c>
       <c r="M18" t="n">
-        <v>7562</v>
+        <v>6750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44166</v>
+        <v>44529</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>7804</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44566</v>
+        <v>44524</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L20" t="n">
         <v>7000</v>
       </c>
-      <c r="L20" t="n">
-        <v>7500</v>
-      </c>
       <c r="M20" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44482</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44165</v>
+        <v>44495</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,17 +1941,17 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
         <v>8000</v>
       </c>
       <c r="L22" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M22" t="n">
         <v>8500</v>
       </c>
-      <c r="M22" t="n">
-        <v>8263</v>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44516</v>
+        <v>44161</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K23" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L23" t="n">
         <v>7000</v>
       </c>
-      <c r="L23" t="n">
-        <v>8000</v>
-      </c>
       <c r="M23" t="n">
-        <v>7500</v>
+        <v>6764</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44533</v>
+        <v>44160</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2094,7 +2094,7 @@
         <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>6750</v>
+        <v>6688</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44495</v>
+        <v>44526</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44489</v>
+        <v>44167</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44526</v>
+        <v>44489</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44476</v>
+        <v>44517</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44553</v>
+        <v>44476</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K29" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44167</v>
+        <v>44515</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L30" t="n">
         <v>8000</v>
       </c>
-      <c r="L30" t="n">
-        <v>9000</v>
-      </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44161</v>
+        <v>44509</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M31" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44160</v>
+        <v>44488</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K32" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>6688</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44491</v>
+        <v>44473</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,13 +2736,13 @@
         <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44519</v>
+        <v>44482</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44529</v>
+        <v>44466</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M35" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44473</v>
+        <v>44162</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>9750</v>
+        <v>7562</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44536</v>
+        <v>44491</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44511</v>
+        <v>44533</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L38" t="n">
         <v>7000</v>
       </c>
-      <c r="L38" t="n">
-        <v>8000</v>
-      </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44518</v>
+        <v>44512</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44540</v>
+        <v>44511</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3240,13 +3240,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44536</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44522</v>
+        <v>44491</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44553</v>
+        <v>44517</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L4" t="n">
         <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44518</v>
+        <v>44473</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44165</v>
+        <v>44515</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L7" t="n">
         <v>8000</v>
       </c>
-      <c r="L7" t="n">
-        <v>8500</v>
-      </c>
       <c r="M7" t="n">
-        <v>8263</v>
+        <v>7500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44484</v>
+        <v>44537</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44537</v>
+        <v>44518</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
         <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44504</v>
+        <v>44482</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
         <v>8000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44159</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44487</v>
+        <v>44509</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
         <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44487</v>
+        <v>44522</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44165</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44166</v>
+        <v>44553</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>7804</v>
+        <v>6750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44530</v>
+        <v>44476</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44516</v>
+        <v>44524</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L17" t="n">
         <v>7000</v>
       </c>
-      <c r="L17" t="n">
-        <v>8000</v>
-      </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44540</v>
+        <v>44530</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
         <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44529</v>
+        <v>44487</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44524</v>
+        <v>44487</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44159</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L21" t="n">
         <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>6738</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44495</v>
+        <v>44466</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1944,13 +1944,13 @@
         <v>60</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44161</v>
+        <v>44484</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>6764</v>
+        <v>8750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44160</v>
+        <v>44516</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>6688</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44526</v>
+        <v>44512</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44167</v>
+        <v>44540</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44489</v>
+        <v>44511</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L27" t="n">
         <v>8000</v>
       </c>
-      <c r="L27" t="n">
-        <v>9000</v>
-      </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44517</v>
+        <v>44166</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>7804</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44476</v>
+        <v>44160</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>7750</v>
+        <v>6688</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44515</v>
+        <v>44519</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L30" t="n">
         <v>7000</v>
       </c>
-      <c r="L30" t="n">
-        <v>8000</v>
-      </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44509</v>
+        <v>44161</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K31" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L31" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>8500</v>
+        <v>6764</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44488</v>
+        <v>44504</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44473</v>
+        <v>44536</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44482</v>
+        <v>44526</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44466</v>
+        <v>44533</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44162</v>
+        <v>44489</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>7562</v>
+        <v>8500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L37" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44533</v>
+        <v>44167</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44512</v>
+        <v>44162</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
         <v>7000</v>
@@ -3174,7 +3174,7 @@
         <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>7562</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44511</v>
+        <v>44529</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3240,13 +3240,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L40" t="n">
         <v>7000</v>
       </c>
-      <c r="L40" t="n">
-        <v>8000</v>
-      </c>
       <c r="M40" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44517</v>
+        <v>44484</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44566</v>
+        <v>44161</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K5" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L5" t="n">
         <v>7000</v>
       </c>
-      <c r="L5" t="n">
-        <v>7500</v>
-      </c>
       <c r="M5" t="n">
-        <v>7250</v>
+        <v>6764</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44473</v>
+        <v>44517</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44515</v>
+        <v>44523</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L7" t="n">
         <v>7000</v>
       </c>
-      <c r="L7" t="n">
-        <v>8000</v>
-      </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44537</v>
+        <v>44165</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K8" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M8" t="n">
-        <v>6750</v>
+        <v>8263</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44518</v>
+        <v>44512</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L10" t="n">
         <v>8000</v>
       </c>
-      <c r="L10" t="n">
-        <v>9000</v>
-      </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44522</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L13" t="n">
         <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44165</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>8263</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44553</v>
+        <v>44540</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44476</v>
+        <v>44509</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44524</v>
+        <v>44518</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
         <v>6000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44487</v>
+        <v>44159</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>8000</v>
+        <v>6738</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44487</v>
+        <v>44466</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44159</v>
+        <v>44482</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44466</v>
+        <v>44166</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K22" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>11500</v>
+        <v>7804</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>460</v>
+        <v>312</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44484</v>
+        <v>44515</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44516</v>
+        <v>44566</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
         <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44512</v>
+        <v>44162</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
         <v>7000</v>
@@ -2166,7 +2166,7 @@
         <v>8000</v>
       </c>
       <c r="M25" t="n">
-        <v>7500</v>
+        <v>7562</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44540</v>
+        <v>44516</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2232,13 +2232,13 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44166</v>
+        <v>44536</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L28" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>7804</v>
+        <v>6750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44160</v>
+        <v>44473</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>6688</v>
+        <v>9750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44519</v>
+        <v>44537</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L30" t="n">
         <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44161</v>
+        <v>44553</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
         <v>6500</v>
@@ -2598,7 +2598,7 @@
         <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>6764</v>
+        <v>6750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44504</v>
+        <v>44524</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44536</v>
+        <v>44530</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
         <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44526</v>
+        <v>44489</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44533</v>
+        <v>44504</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K36" t="n">
         <v>8000</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44523</v>
+        <v>44487</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K37" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44162</v>
+        <v>44167</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>7562</v>
+        <v>8500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44529</v>
+        <v>44160</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L40" t="n">
         <v>7000</v>
       </c>
       <c r="M40" t="n">
-        <v>6500</v>
+        <v>6688</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44161</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>6764</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44484</v>
+        <v>44489</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
         <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44161</v>
+        <v>44566</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M5" t="n">
-        <v>6764</v>
+        <v>7250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44517</v>
+        <v>44160</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
         <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>6688</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44523</v>
+        <v>44509</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44165</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L8" t="n">
         <v>8000</v>
       </c>
-      <c r="L8" t="n">
-        <v>8500</v>
-      </c>
       <c r="M8" t="n">
-        <v>8263</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44512</v>
+        <v>44495</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="K10" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>7750</v>
+        <v>6738</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44495</v>
+        <v>44522</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44518</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
         <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44504</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44540</v>
+        <v>44484</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44509</v>
+        <v>44166</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K16" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L16" t="n">
         <v>8000</v>
       </c>
-      <c r="L16" t="n">
-        <v>9000</v>
-      </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44518</v>
+        <v>44466</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44529</v>
+        <v>44524</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44159</v>
+        <v>44540</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>6500</v>
@@ -1734,7 +1734,7 @@
         <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>6738</v>
+        <v>6750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44466</v>
+        <v>44516</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44482</v>
+        <v>44536</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44166</v>
+        <v>44553</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>7804</v>
+        <v>6750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44515</v>
+        <v>44165</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K23" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M23" t="n">
-        <v>7500</v>
+        <v>8263</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44566</v>
+        <v>44519</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L24" t="n">
         <v>7000</v>
       </c>
-      <c r="L24" t="n">
-        <v>7500</v>
-      </c>
       <c r="M24" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44162</v>
+        <v>44167</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>7562</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44516</v>
+        <v>44530</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2232,13 +2232,13 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L26" t="n">
         <v>7000</v>
       </c>
-      <c r="L26" t="n">
-        <v>8000</v>
-      </c>
       <c r="M26" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44511</v>
+        <v>44491</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44536</v>
+        <v>44517</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K29" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44537</v>
+        <v>44523</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
         <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44553</v>
+        <v>44526</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2592,13 +2592,13 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L31" t="n">
         <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44524</v>
+        <v>44162</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K34" t="n">
         <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44504</v>
+        <v>44487</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K35" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
         <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44487</v>
+        <v>44473</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44487</v>
+        <v>44537</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L37" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44522</v>
+        <v>44482</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K38" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44167</v>
+        <v>44533</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L39" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44160</v>
+        <v>44515</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>6688</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44161</v>
+        <v>44518</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
         <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>6764</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44489</v>
+        <v>44566</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44566</v>
+        <v>44489</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>6688</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44509</v>
+        <v>44482</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
         <v>8000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44495</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44495</v>
+        <v>44529</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44509</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44522</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44512</v>
+        <v>44540</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L12" t="n">
         <v>7000</v>
       </c>
-      <c r="L12" t="n">
-        <v>8000</v>
-      </c>
       <c r="M12" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
         <v>6000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44504</v>
+        <v>44536</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44484</v>
+        <v>44166</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>8750</v>
+        <v>7804</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44166</v>
+        <v>44476</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
         <v>7500</v>
@@ -1518,7 +1518,7 @@
         <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>7804</v>
+        <v>7750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44466</v>
+        <v>44161</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K17" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>11500</v>
+        <v>6764</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>460</v>
+        <v>271</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44524</v>
+        <v>44484</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44540</v>
+        <v>44488</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44536</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
         <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44553</v>
+        <v>44491</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44165</v>
+        <v>44533</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L23" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>8263</v>
+        <v>6750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44519</v>
+        <v>44160</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2088,13 +2088,13 @@
         <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L24" t="n">
         <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>6688</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44167</v>
+        <v>44159</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>6738</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44491</v>
+        <v>44511</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L27" t="n">
         <v>8000</v>
       </c>
-      <c r="L27" t="n">
-        <v>9000</v>
-      </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44517</v>
+        <v>44162</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44476</v>
+        <v>44504</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44526</v>
+        <v>44522</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44162</v>
+        <v>44524</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L32" t="n">
         <v>7000</v>
       </c>
-      <c r="L32" t="n">
-        <v>8000</v>
-      </c>
       <c r="M32" t="n">
-        <v>7562</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44529</v>
+        <v>44515</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44487</v>
+        <v>44165</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K34" t="n">
         <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M34" t="n">
-        <v>8000</v>
+        <v>8263</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44487</v>
+        <v>44553</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L35" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44537</v>
+        <v>44517</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L37" t="n">
         <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K38" t="n">
         <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44533</v>
+        <v>44487</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K39" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44515</v>
+        <v>44466</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L40" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M40" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44518</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44524</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L3" t="n">
         <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44566</v>
+        <v>44526</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L4" t="n">
         <v>7000</v>
       </c>
-      <c r="L4" t="n">
-        <v>7500</v>
-      </c>
       <c r="M4" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44489</v>
+        <v>44166</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K5" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L5" t="n">
         <v>8000</v>
       </c>
-      <c r="L5" t="n">
-        <v>9000</v>
-      </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44482</v>
+        <v>44540</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44495</v>
+        <v>44517</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44529</v>
+        <v>44165</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44509</v>
+        <v>44530</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44509</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44540</v>
+        <v>44487</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44487</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44536</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K14" t="n">
         <v>6500</v>
@@ -1374,7 +1374,7 @@
         <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>6750</v>
+        <v>6738</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44166</v>
+        <v>44566</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L15" t="n">
         <v>7500</v>
       </c>
-      <c r="L15" t="n">
-        <v>8000</v>
-      </c>
       <c r="M15" t="n">
-        <v>7804</v>
+        <v>7250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44161</v>
+        <v>44536</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
         <v>6500</v>
@@ -1590,7 +1590,7 @@
         <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>6764</v>
+        <v>6750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
         <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44488</v>
+        <v>44537</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44516</v>
+        <v>44484</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44515</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44533</v>
+        <v>44466</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44160</v>
+        <v>44491</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>6688</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44159</v>
+        <v>44518</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
         <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>6738</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44530</v>
+        <v>44523</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
         <v>6000</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L27" t="n">
         <v>7000</v>
       </c>
-      <c r="L27" t="n">
-        <v>8000</v>
-      </c>
       <c r="M27" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K28" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L28" t="n">
         <v>7000</v>
       </c>
-      <c r="L28" t="n">
-        <v>8000</v>
-      </c>
       <c r="M28" t="n">
-        <v>7562</v>
+        <v>6764</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44512</v>
+        <v>44533</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L30" t="n">
         <v>7000</v>
       </c>
-      <c r="L30" t="n">
-        <v>8000</v>
-      </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44522</v>
+        <v>44482</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44524</v>
+        <v>44512</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2664,13 +2664,13 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44515</v>
+        <v>44511</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L34" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>8263</v>
+        <v>6500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44553</v>
+        <v>44167</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44473</v>
+        <v>44516</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44517</v>
+        <v>44473</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44487</v>
+        <v>44162</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
         <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>8000</v>
+        <v>7562</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
         <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44466</v>
+        <v>44160</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L40" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M40" t="n">
-        <v>11500</v>
+        <v>6688</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>460</v>
+        <v>268</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44466</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44524</v>
+        <v>44165</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44526</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44166</v>
+        <v>44518</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>7804</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44553</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
         <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44540</v>
+        <v>44516</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -936,13 +936,13 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44165</v>
+        <v>44536</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>8263</v>
+        <v>6750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44530</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44509</v>
+        <v>44484</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L11" t="n">
         <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44487</v>
+        <v>44537</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44487</v>
+        <v>44522</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44476</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>6738</v>
+        <v>7750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44566</v>
+        <v>44495</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="K16" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>7750</v>
+        <v>6738</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44536</v>
+        <v>44509</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44537</v>
+        <v>44566</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M19" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44484</v>
+        <v>44161</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K20" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>8750</v>
+        <v>6764</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44515</v>
+        <v>44526</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L21" t="n">
         <v>7000</v>
       </c>
-      <c r="L21" t="n">
-        <v>8000</v>
-      </c>
       <c r="M21" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44522</v>
+        <v>44166</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>7804</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44466</v>
+        <v>44533</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44491</v>
+        <v>44517</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44518</v>
+        <v>44524</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
         <v>6000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
         <v>6000</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44519</v>
+        <v>44160</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2304,13 +2304,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L27" t="n">
         <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>6688</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M28" t="n">
-        <v>6764</v>
+        <v>7562</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44504</v>
+        <v>44473</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2448,13 +2448,13 @@
         <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44533</v>
+        <v>44512</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44482</v>
+        <v>44540</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L31" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44512</v>
+        <v>44482</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44511</v>
+        <v>44553</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L33" t="n">
         <v>7000</v>
       </c>
-      <c r="L33" t="n">
-        <v>8000</v>
-      </c>
       <c r="M33" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44529</v>
+        <v>44511</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2808,13 +2808,13 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44167</v>
+        <v>44487</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K35" t="n">
         <v>8000</v>
       </c>
       <c r="L35" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44516</v>
+        <v>44487</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K36" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44162</v>
+        <v>44504</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>7562</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44489</v>
+        <v>44491</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44160</v>
+        <v>44489</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>6688</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44165</v>
+        <v>44516</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L3" t="n">
         <v>8000</v>
       </c>
-      <c r="L3" t="n">
-        <v>8500</v>
-      </c>
       <c r="M3" t="n">
-        <v>8263</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44537</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>6000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44509</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44516</v>
+        <v>44512</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44515</v>
+        <v>44473</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44536</v>
+        <v>44482</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44489</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
         <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44537</v>
+        <v>44540</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
         <v>6500</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44522</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44476</v>
+        <v>44524</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L15" t="n">
         <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K16" t="n">
         <v>6500</v>
@@ -1518,7 +1518,7 @@
         <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>6738</v>
+        <v>6764</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44509</v>
+        <v>44529</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44523</v>
+        <v>44487</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44566</v>
+        <v>44487</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>7250</v>
+        <v>9000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44161</v>
+        <v>44553</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
         <v>6500</v>
@@ -1806,7 +1806,7 @@
         <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>6764</v>
+        <v>6750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>44476</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44166</v>
+        <v>44526</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>7804</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44533</v>
+        <v>44518</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
         <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44517</v>
+        <v>44530</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44524</v>
+        <v>44517</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44530</v>
+        <v>44162</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44160</v>
+        <v>44491</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>6688</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44162</v>
+        <v>44495</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>7562</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44473</v>
+        <v>44167</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2448,13 +2448,13 @@
         <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44512</v>
+        <v>44488</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44540</v>
+        <v>44166</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K31" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>6750</v>
+        <v>7804</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44482</v>
+        <v>44160</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44553</v>
+        <v>44519</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
         <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44511</v>
+        <v>44533</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L34" t="n">
         <v>7000</v>
       </c>
-      <c r="L34" t="n">
-        <v>8000</v>
-      </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44487</v>
+        <v>44523</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44487</v>
+        <v>44159</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>9000</v>
+        <v>6738</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L37" t="n">
         <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44504</v>
+        <v>44566</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3096,13 +3096,13 @@
         <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44491</v>
+        <v>44515</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L39" t="n">
         <v>8000</v>
       </c>
-      <c r="L39" t="n">
-        <v>9000</v>
-      </c>
       <c r="M39" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44489</v>
+        <v>44165</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K40" t="n">
         <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>8263</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44516</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L3" t="n">
         <v>7000</v>
       </c>
-      <c r="L3" t="n">
-        <v>8000</v>
-      </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44537</v>
+        <v>44491</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44522</v>
+        <v>44162</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44509</v>
+        <v>44540</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44512</v>
+        <v>44489</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44473</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K8" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>9750</v>
+        <v>6738</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44482</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44489</v>
+        <v>44165</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K10" t="n">
         <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>8263</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44504</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44540</v>
+        <v>44511</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44517</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44524</v>
+        <v>44161</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L14" t="n">
         <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44484</v>
+        <v>44476</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44161</v>
+        <v>44484</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>6764</v>
+        <v>8750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44529</v>
+        <v>44482</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44487</v>
+        <v>44537</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44487</v>
+        <v>44473</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>9000</v>
+        <v>9750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44553</v>
+        <v>44518</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
         <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44476</v>
+        <v>44515</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
         <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44526</v>
+        <v>44516</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1944,13 +1944,13 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44518</v>
+        <v>44566</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2016,13 +2016,13 @@
         <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44530</v>
+        <v>44167</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44517</v>
+        <v>44466</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44162</v>
+        <v>44524</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L26" t="n">
         <v>7000</v>
       </c>
-      <c r="L26" t="n">
-        <v>8000</v>
-      </c>
       <c r="M26" t="n">
-        <v>7562</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44491</v>
+        <v>44504</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44495</v>
+        <v>44509</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
         <v>8000</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44167</v>
+        <v>44530</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44166</v>
+        <v>44536</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>7804</v>
+        <v>6750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44160</v>
+        <v>44512</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>6688</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44519</v>
+        <v>44495</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44533</v>
+        <v>44160</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2814,7 +2814,7 @@
         <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>6750</v>
+        <v>6688</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44523</v>
+        <v>44529</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
         <v>6000</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K36" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>6738</v>
+        <v>7804</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44536</v>
+        <v>44522</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L37" t="n">
         <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44566</v>
+        <v>44526</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L38" t="n">
         <v>7000</v>
       </c>
-      <c r="L38" t="n">
-        <v>7500</v>
-      </c>
       <c r="M38" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44515</v>
+        <v>44487</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
         <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44165</v>
+        <v>44487</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K40" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L40" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>8263</v>
+        <v>9000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44518</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44487</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
         <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44162</v>
+        <v>44489</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>7562</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44540</v>
+        <v>44566</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M6" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44489</v>
+        <v>44159</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>6738</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44484</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6738</v>
+        <v>8750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44488</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,17 +1077,17 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
         <v>8000</v>
       </c>
       <c r="L10" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M10" t="n">
         <v>8500</v>
       </c>
-      <c r="M10" t="n">
-        <v>8263</v>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44511</v>
+        <v>44540</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1224,13 +1224,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L12" t="n">
         <v>7000</v>
       </c>
-      <c r="L12" t="n">
-        <v>8000</v>
-      </c>
       <c r="M12" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44517</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44161</v>
+        <v>44166</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>6764</v>
+        <v>7804</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44476</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
         <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44482</v>
+        <v>44511</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L17" t="n">
         <v>8000</v>
       </c>
-      <c r="L17" t="n">
-        <v>9000</v>
-      </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
         <v>6500</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44473</v>
+        <v>44515</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44518</v>
+        <v>44162</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44515</v>
+        <v>44495</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44516</v>
+        <v>44161</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K22" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L22" t="n">
         <v>7000</v>
       </c>
-      <c r="L22" t="n">
-        <v>8000</v>
-      </c>
       <c r="M22" t="n">
-        <v>7500</v>
+        <v>6764</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44566</v>
+        <v>44530</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L23" t="n">
         <v>7000</v>
       </c>
-      <c r="L23" t="n">
-        <v>7500</v>
-      </c>
       <c r="M23" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44167</v>
+        <v>44519</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44466</v>
+        <v>44160</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>11500</v>
+        <v>6688</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>460</v>
+        <v>268</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44524</v>
+        <v>44553</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2232,13 +2232,13 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L26" t="n">
         <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44504</v>
+        <v>44516</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L27" t="n">
         <v>8000</v>
       </c>
-      <c r="L27" t="n">
-        <v>9000</v>
-      </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44530</v>
+        <v>44476</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
         <v>6000</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44536</v>
+        <v>44529</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L31" t="n">
         <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44512</v>
+        <v>44517</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2664,13 +2664,13 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L32" t="n">
         <v>7000</v>
       </c>
-      <c r="L32" t="n">
-        <v>8000</v>
-      </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44495</v>
+        <v>44526</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44160</v>
+        <v>44473</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>6688</v>
+        <v>9750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44529</v>
+        <v>44537</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L35" t="n">
         <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44166</v>
+        <v>44482</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="K36" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44522</v>
+        <v>44165</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K37" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M37" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44526</v>
+        <v>44504</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44487</v>
+        <v>44522</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44487</v>
+        <v>44512</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44518</v>
+        <v>44167</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44487</v>
+        <v>44161</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>6764</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44489</v>
+        <v>44522</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44566</v>
+        <v>44529</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L6" t="n">
         <v>7000</v>
       </c>
-      <c r="L6" t="n">
-        <v>7500</v>
-      </c>
       <c r="M6" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44159</v>
+        <v>44511</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>6738</v>
+        <v>7500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44484</v>
+        <v>44512</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44488</v>
+        <v>44504</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44540</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44523</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>7804</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
         <v>6500</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44165</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>8263</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>331</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44166</v>
+        <v>44495</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
         <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44491</v>
+        <v>44466</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44511</v>
+        <v>44530</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L17" t="n">
         <v>7000</v>
       </c>
-      <c r="L17" t="n">
-        <v>8000</v>
-      </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44536</v>
+        <v>44517</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
         <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44515</v>
+        <v>44509</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44162</v>
+        <v>44515</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
         <v>7000</v>
@@ -1806,7 +1806,7 @@
         <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>7562</v>
+        <v>7500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44495</v>
+        <v>44160</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44161</v>
+        <v>44537</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
         <v>6500</v>
@@ -1950,7 +1950,7 @@
         <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>6764</v>
+        <v>6750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44530</v>
+        <v>44487</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44519</v>
+        <v>44487</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44160</v>
+        <v>44526</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
         <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>6688</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44553</v>
+        <v>44484</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K26" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44516</v>
+        <v>44488</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2376,13 +2376,13 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L28" t="n">
         <v>8000</v>
       </c>
-      <c r="L28" t="n">
-        <v>9000</v>
-      </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44476</v>
+        <v>44491</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44524</v>
+        <v>44476</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44529</v>
+        <v>44482</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44517</v>
+        <v>44162</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44526</v>
+        <v>44553</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L33" t="n">
         <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44537</v>
+        <v>44524</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L35" t="n">
         <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44482</v>
+        <v>44159</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="K36" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>8500</v>
+        <v>6738</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44165</v>
+        <v>44518</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L37" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>8263</v>
+        <v>6500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44504</v>
+        <v>44533</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44522</v>
+        <v>44566</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M39" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L40" t="n">
         <v>7000</v>
       </c>
-      <c r="L40" t="n">
-        <v>8000</v>
-      </c>
       <c r="M40" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44489</v>
+        <v>44540</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44161</v>
+        <v>44509</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44522</v>
+        <v>44159</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L5" t="n">
         <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>6738</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44529</v>
+        <v>44512</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44511</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44512</v>
+        <v>44536</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L8" t="n">
         <v>7000</v>
       </c>
-      <c r="L8" t="n">
-        <v>8000</v>
-      </c>
       <c r="M8" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44504</v>
+        <v>44495</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44540</v>
+        <v>44524</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
         <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44518</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>7804</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44536</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44165</v>
+        <v>44566</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M13" t="n">
-        <v>8263</v>
+        <v>7250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44495</v>
+        <v>44537</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44515</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44466</v>
+        <v>44484</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
         <v>6000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44517</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L18" t="n">
         <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44509</v>
+        <v>44529</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44515</v>
+        <v>44491</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44160</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
         <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>6688</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44537</v>
+        <v>44161</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K22" t="n">
         <v>6500</v>
@@ -1950,7 +1950,7 @@
         <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>6750</v>
+        <v>6764</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44487</v>
+        <v>44165</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K23" t="n">
         <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M23" t="n">
-        <v>8000</v>
+        <v>8263</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44487</v>
+        <v>44160</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>9000</v>
+        <v>6688</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>360</v>
+        <v>268</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44526</v>
+        <v>44517</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44484</v>
+        <v>44553</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44488</v>
+        <v>44504</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44516</v>
+        <v>44526</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2376,13 +2376,13 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L28" t="n">
         <v>7000</v>
       </c>
-      <c r="L28" t="n">
-        <v>8000</v>
-      </c>
       <c r="M28" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K29" t="n">
         <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44476</v>
+        <v>44487</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44482</v>
+        <v>44516</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L31" t="n">
         <v>8000</v>
       </c>
-      <c r="L31" t="n">
-        <v>9000</v>
-      </c>
       <c r="M31" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44553</v>
+        <v>44476</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44473</v>
+        <v>44482</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44524</v>
+        <v>44511</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2880,13 +2880,13 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44159</v>
+        <v>44466</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M36" t="n">
-        <v>6738</v>
+        <v>11500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44518</v>
+        <v>44530</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
         <v>6000</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44533</v>
+        <v>44166</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K38" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>6750</v>
+        <v>7804</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44566</v>
+        <v>44473</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3168,13 +3168,13 @@
         <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L39" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44522</v>
+        <v>44165</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M2" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44540</v>
+        <v>44476</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44509</v>
+        <v>44540</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44159</v>
+        <v>44537</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
         <v>6500</v>
@@ -726,7 +726,7 @@
         <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>6738</v>
+        <v>6750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44512</v>
+        <v>44495</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44495</v>
+        <v>44566</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44518</v>
+        <v>44482</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L12" t="n">
         <v>8000</v>
       </c>
-      <c r="L12" t="n">
-        <v>9000</v>
-      </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>7804</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44566</v>
+        <v>44523</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L13" t="n">
         <v>7000</v>
       </c>
-      <c r="L13" t="n">
-        <v>7500</v>
-      </c>
       <c r="M13" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
         <v>6500</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44515</v>
+        <v>44160</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L15" t="n">
         <v>7000</v>
       </c>
-      <c r="L15" t="n">
-        <v>8000</v>
-      </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>6688</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44533</v>
+        <v>44504</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44491</v>
+        <v>44524</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44159</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L21" t="n">
         <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>6738</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44161</v>
+        <v>44491</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,17 +2013,17 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
         <v>8000</v>
       </c>
       <c r="L23" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M23" t="n">
         <v>8500</v>
       </c>
-      <c r="M23" t="n">
-        <v>8263</v>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>6500</v>
@@ -2094,7 +2094,7 @@
         <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>6688</v>
+        <v>6750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
         <v>6000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44553</v>
+        <v>44509</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2232,13 +2232,13 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44504</v>
+        <v>44529</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L28" t="n">
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44487</v>
+        <v>44161</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>8000</v>
+        <v>6764</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44487</v>
+        <v>44511</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44516</v>
+        <v>44515</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44476</v>
+        <v>44518</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K34" t="n">
         <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44511</v>
+        <v>44487</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44466</v>
+        <v>44484</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K36" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44530</v>
+        <v>44488</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44166</v>
+        <v>44512</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
         <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>7804</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44473</v>
+        <v>44517</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44476</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
         <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44540</v>
+        <v>44509</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44537</v>
+        <v>44495</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44495</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L6" t="n">
         <v>8000</v>
       </c>
-      <c r="L6" t="n">
-        <v>9000</v>
-      </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>7562</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44473</v>
+        <v>44161</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K8" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>9750</v>
+        <v>6764</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>390</v>
+        <v>271</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44566</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L9" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>7250</v>
+        <v>7804</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44482</v>
+        <v>44491</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
         <v>8000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44523</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L13" t="n">
         <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44536</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
         <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44160</v>
+        <v>44487</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>6688</v>
+        <v>8000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44516</v>
+        <v>44537</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L17" t="n">
         <v>7000</v>
       </c>
-      <c r="L17" t="n">
-        <v>8000</v>
-      </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44504</v>
+        <v>44482</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
         <v>8000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44530</v>
+        <v>44160</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L19" t="n">
         <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>6688</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44524</v>
+        <v>44473</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44159</v>
+        <v>44536</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
         <v>6500</v>
@@ -1878,7 +1878,7 @@
         <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>6738</v>
+        <v>6750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44491</v>
+        <v>44529</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44167</v>
+        <v>44517</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44553</v>
+        <v>44518</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
         <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44519</v>
+        <v>44540</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L25" t="n">
         <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44509</v>
+        <v>44488</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
         <v>8000</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44529</v>
+        <v>44466</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44533</v>
+        <v>44524</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44161</v>
+        <v>44512</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>6764</v>
+        <v>7500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L30" t="n">
         <v>7000</v>
       </c>
-      <c r="L30" t="n">
-        <v>8000</v>
-      </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44515</v>
+        <v>44523</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L31" t="n">
         <v>7000</v>
       </c>
-      <c r="L31" t="n">
-        <v>8000</v>
-      </c>
       <c r="M31" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44162</v>
+        <v>44566</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K32" t="n">
         <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M32" t="n">
-        <v>7562</v>
+        <v>7250</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44518</v>
+        <v>44476</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44487</v>
+        <v>44533</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L35" t="n">
         <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44484</v>
+        <v>44159</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K36" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>8750</v>
+        <v>6738</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44488</v>
+        <v>44515</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L37" t="n">
         <v>8000</v>
       </c>
-      <c r="L37" t="n">
-        <v>9000</v>
-      </c>
       <c r="M37" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44512</v>
+        <v>44504</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44517</v>
+        <v>44484</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K39" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44489</v>
+        <v>44516</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L40" t="n">
         <v>8000</v>
       </c>
-      <c r="L40" t="n">
-        <v>9000</v>
-      </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44536</v>
+        <v>44789</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L22" t="n">
         <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44517</v>
+        <v>44529</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>6000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
         <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44488</v>
+        <v>44540</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2304,13 +2304,13 @@
         <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44524</v>
+        <v>44466</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44512</v>
+        <v>44524</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2448,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L29" t="n">
         <v>7000</v>
       </c>
-      <c r="L29" t="n">
-        <v>8000</v>
-      </c>
       <c r="M29" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44566</v>
+        <v>44523</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L32" t="n">
         <v>7000</v>
       </c>
-      <c r="L32" t="n">
-        <v>7500</v>
-      </c>
       <c r="M32" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44476</v>
+        <v>44566</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L33" t="n">
         <v>7500</v>
       </c>
-      <c r="L33" t="n">
-        <v>8000</v>
-      </c>
       <c r="M33" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44533</v>
+        <v>44476</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K34" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L35" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44159</v>
+        <v>44489</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K37" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L37" t="n">
         <v>7000</v>
       </c>
-      <c r="L37" t="n">
-        <v>8000</v>
-      </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L38" t="n">
         <v>8000</v>
       </c>
-      <c r="L38" t="n">
-        <v>9000</v>
-      </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
         <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,58 +3213,130 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E40" t="n">
+        <v>16</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>30</v>
+      </c>
+      <c r="K40" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>25</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E40" t="n">
-        <v>16</v>
-      </c>
-      <c r="F40" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
+      <c r="E41" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
         <v>100</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K41" t="n">
         <v>7000</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>8000</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M41" t="n">
         <v>7500</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P40" t="n">
+      <c r="P41" t="n">
         <v>300</v>
       </c>
-      <c r="Q40" t="n">
-        <v>25</v>
-      </c>
-      <c r="R40" t="inlineStr">
+      <c r="Q41" t="n">
+        <v>25</v>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44160</v>
+        <v>44792</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M19" t="n">
-        <v>6688</v>
+        <v>12000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>268</v>
+        <v>480</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44473</v>
+        <v>44160</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>9750</v>
+        <v>6688</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44789</v>
+        <v>44473</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44536</v>
+        <v>44789</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L23" t="n">
         <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44517</v>
+        <v>44529</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
         <v>6000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
         <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44488</v>
+        <v>44540</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2376,13 +2376,13 @@
         <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44524</v>
+        <v>44466</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44512</v>
+        <v>44524</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2520,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L30" t="n">
         <v>7000</v>
       </c>
-      <c r="L30" t="n">
-        <v>8000</v>
-      </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44566</v>
+        <v>44523</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L33" t="n">
         <v>7000</v>
       </c>
-      <c r="L33" t="n">
-        <v>7500</v>
-      </c>
       <c r="M33" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44476</v>
+        <v>44566</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L34" t="n">
         <v>7500</v>
       </c>
-      <c r="L34" t="n">
-        <v>8000</v>
-      </c>
       <c r="M34" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44533</v>
+        <v>44476</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K35" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44159</v>
+        <v>44489</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K38" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L38" t="n">
         <v>7000</v>
       </c>
-      <c r="L38" t="n">
-        <v>8000</v>
-      </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L39" t="n">
         <v>8000</v>
       </c>
-      <c r="L39" t="n">
-        <v>9000</v>
-      </c>
       <c r="M39" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
         <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,58 +3285,130 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E41" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>30</v>
+      </c>
+      <c r="K41" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L41" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>25</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E41" t="n">
-        <v>16</v>
-      </c>
-      <c r="F41" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
+      <c r="E42" t="n">
+        <v>16</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
         <v>100</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K42" t="n">
         <v>7000</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>8000</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M42" t="n">
         <v>7500</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P41" t="n">
+      <c r="P42" t="n">
         <v>300</v>
       </c>
-      <c r="Q41" t="n">
-        <v>25</v>
-      </c>
-      <c r="R41" t="inlineStr">
+      <c r="Q42" t="n">
+        <v>25</v>
+      </c>
+      <c r="R42" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44792</v>
+        <v>44797</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
         <v>12000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44160</v>
+        <v>44792</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>6688</v>
+        <v>12000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>268</v>
+        <v>480</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44473</v>
+        <v>44160</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>9750</v>
+        <v>6688</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44789</v>
+        <v>44473</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1944,13 +1944,13 @@
         <v>60</v>
       </c>
       <c r="K22" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44536</v>
+        <v>44789</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L24" t="n">
         <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44517</v>
+        <v>44529</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
         <v>6000</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L27" t="n">
         <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44488</v>
+        <v>44540</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2448,13 +2448,13 @@
         <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44524</v>
+        <v>44466</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44512</v>
+        <v>44524</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2592,13 +2592,13 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L31" t="n">
         <v>7000</v>
       </c>
-      <c r="L31" t="n">
-        <v>8000</v>
-      </c>
       <c r="M31" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44566</v>
+        <v>44523</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L34" t="n">
         <v>7000</v>
       </c>
-      <c r="L34" t="n">
-        <v>7500</v>
-      </c>
       <c r="M34" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44476</v>
+        <v>44566</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L35" t="n">
         <v>7500</v>
       </c>
-      <c r="L35" t="n">
-        <v>8000</v>
-      </c>
       <c r="M35" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44533</v>
+        <v>44476</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K36" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L37" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44159</v>
+        <v>44489</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K39" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L39" t="n">
         <v>7000</v>
       </c>
-      <c r="L39" t="n">
-        <v>8000</v>
-      </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L40" t="n">
         <v>8000</v>
       </c>
-      <c r="L40" t="n">
-        <v>9000</v>
-      </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K41" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L41" t="n">
         <v>9000</v>
       </c>
       <c r="M41" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,58 +3357,130 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>30</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L42" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>25</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E42" t="n">
-        <v>16</v>
-      </c>
-      <c r="F42" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
+      <c r="E43" t="n">
+        <v>16</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
         <v>100</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K43" t="n">
         <v>7000</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>8000</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M43" t="n">
         <v>7500</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P42" t="n">
+      <c r="P43" t="n">
         <v>300</v>
       </c>
-      <c r="Q42" t="n">
-        <v>25</v>
-      </c>
-      <c r="R42" t="inlineStr">
+      <c r="Q43" t="n">
+        <v>25</v>
+      </c>
+      <c r="R43" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44792</v>
+        <v>44799</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M20" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44160</v>
+        <v>44792</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>6688</v>
+        <v>12000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>268</v>
+        <v>480</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44473</v>
+        <v>44160</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>9750</v>
+        <v>6688</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44789</v>
+        <v>44473</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2016,13 +2016,13 @@
         <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44536</v>
+        <v>44789</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L25" t="n">
         <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44517</v>
+        <v>44529</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
         <v>6000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44488</v>
+        <v>44540</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2520,13 +2520,13 @@
         <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44524</v>
+        <v>44466</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44512</v>
+        <v>44524</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2664,13 +2664,13 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L32" t="n">
         <v>7000</v>
       </c>
-      <c r="L32" t="n">
-        <v>8000</v>
-      </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44566</v>
+        <v>44523</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L35" t="n">
         <v>7000</v>
       </c>
-      <c r="L35" t="n">
-        <v>7500</v>
-      </c>
       <c r="M35" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44476</v>
+        <v>44566</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L36" t="n">
         <v>7500</v>
       </c>
-      <c r="L36" t="n">
-        <v>8000</v>
-      </c>
       <c r="M36" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44533</v>
+        <v>44476</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K37" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44159</v>
+        <v>44489</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K40" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L40" t="n">
         <v>7000</v>
       </c>
-      <c r="L40" t="n">
-        <v>8000</v>
-      </c>
       <c r="M40" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L41" t="n">
         <v>8000</v>
       </c>
-      <c r="L41" t="n">
-        <v>9000</v>
-      </c>
       <c r="M41" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L42" t="n">
         <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,58 +3429,130 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E43" t="n">
+        <v>16</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>30</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L43" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>25</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E43" t="n">
-        <v>16</v>
-      </c>
-      <c r="F43" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
+      <c r="E44" t="n">
+        <v>16</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
         <v>100</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K44" t="n">
         <v>7000</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L44" t="n">
         <v>8000</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M44" t="n">
         <v>7500</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P43" t="n">
+      <c r="P44" t="n">
         <v>300</v>
       </c>
-      <c r="Q43" t="n">
-        <v>25</v>
-      </c>
-      <c r="R43" t="inlineStr">
+      <c r="Q44" t="n">
+        <v>25</v>
+      </c>
+      <c r="R44" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44160</v>
+        <v>44803</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>6688</v>
+        <v>13500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>268</v>
+        <v>540</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44473</v>
+        <v>44160</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>9750</v>
+        <v>6688</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44789</v>
+        <v>44473</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2088,13 +2088,13 @@
         <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44536</v>
+        <v>44789</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L26" t="n">
         <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44517</v>
+        <v>44529</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
         <v>6000</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
         <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44488</v>
+        <v>44540</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2592,13 +2592,13 @@
         <v>60</v>
       </c>
       <c r="K31" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M31" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44524</v>
+        <v>44466</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44512</v>
+        <v>44524</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,13 +2736,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L33" t="n">
         <v>7000</v>
       </c>
-      <c r="L33" t="n">
-        <v>8000</v>
-      </c>
       <c r="M33" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44566</v>
+        <v>44523</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L36" t="n">
         <v>7000</v>
       </c>
-      <c r="L36" t="n">
-        <v>7500</v>
-      </c>
       <c r="M36" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44476</v>
+        <v>44566</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L37" t="n">
         <v>7500</v>
       </c>
-      <c r="L37" t="n">
-        <v>8000</v>
-      </c>
       <c r="M37" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44533</v>
+        <v>44476</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K38" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L39" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44159</v>
+        <v>44489</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K41" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L41" t="n">
         <v>7000</v>
       </c>
-      <c r="L41" t="n">
-        <v>8000</v>
-      </c>
       <c r="M41" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L42" t="n">
         <v>8000</v>
       </c>
-      <c r="L42" t="n">
-        <v>9000</v>
-      </c>
       <c r="M42" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
         <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,58 +3501,130 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E44" t="n">
+        <v>16</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>30</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L44" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>25</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E44" t="n">
-        <v>16</v>
-      </c>
-      <c r="F44" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
+      <c r="E45" t="n">
+        <v>16</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
         <v>100</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K45" t="n">
         <v>7000</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L45" t="n">
         <v>8000</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M45" t="n">
         <v>7500</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P44" t="n">
+      <c r="P45" t="n">
         <v>300</v>
       </c>
-      <c r="Q44" t="n">
-        <v>25</v>
-      </c>
-      <c r="R44" t="inlineStr">
+      <c r="Q45" t="n">
+        <v>25</v>
+      </c>
+      <c r="R45" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44524</v>
+        <v>44806</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44512</v>
+        <v>44524</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2808,13 +2808,13 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L34" t="n">
         <v>7000</v>
       </c>
-      <c r="L34" t="n">
-        <v>8000</v>
-      </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44566</v>
+        <v>44448</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3024,13 +3024,13 @@
         <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>7250</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44476</v>
+        <v>44523</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44533</v>
+        <v>44566</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M39" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44489</v>
+        <v>44476</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K40" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L40" t="n">
         <v>8000</v>
       </c>
-      <c r="L40" t="n">
-        <v>9000</v>
-      </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44159</v>
+        <v>44533</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K41" t="n">
         <v>6500</v>
@@ -3318,7 +3318,7 @@
         <v>7000</v>
       </c>
       <c r="M41" t="n">
-        <v>6738</v>
+        <v>6750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44515</v>
+        <v>44489</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L42" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44504</v>
+        <v>44159</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="n">
-        <v>8500</v>
+        <v>6738</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44484</v>
+        <v>44515</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M44" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,58 +3573,202 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
+        <v>44504</v>
+      </c>
+      <c r="E45" t="n">
+        <v>16</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>60</v>
+      </c>
+      <c r="K45" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>25</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E46" t="n">
+        <v>16</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>30</v>
+      </c>
+      <c r="K46" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L46" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>25</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E45" t="n">
-        <v>16</v>
-      </c>
-      <c r="F45" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
+      <c r="E47" t="n">
+        <v>16</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
         <v>100</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K47" t="n">
         <v>7000</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L47" t="n">
         <v>8000</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M47" t="n">
         <v>7500</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P45" t="n">
+      <c r="P47" t="n">
         <v>300</v>
       </c>
-      <c r="Q45" t="n">
-        <v>25</v>
-      </c>
-      <c r="R45" t="inlineStr">
+      <c r="Q47" t="n">
+        <v>25</v>
+      </c>
+      <c r="R47" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44523</v>
+        <v>44809</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M38" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44566</v>
+        <v>44523</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L39" t="n">
         <v>7000</v>
       </c>
-      <c r="L39" t="n">
-        <v>7500</v>
-      </c>
       <c r="M39" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44476</v>
+        <v>44566</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L40" t="n">
         <v>7500</v>
       </c>
-      <c r="L40" t="n">
-        <v>8000</v>
-      </c>
       <c r="M40" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44533</v>
+        <v>44476</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K41" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L41" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M41" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K42" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L42" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M42" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44159</v>
+        <v>44489</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K44" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L44" t="n">
         <v>7000</v>
       </c>
-      <c r="L44" t="n">
-        <v>8000</v>
-      </c>
       <c r="M44" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L45" t="n">
         <v>8000</v>
       </c>
-      <c r="L45" t="n">
-        <v>9000</v>
-      </c>
       <c r="M45" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
         <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,58 +3717,130 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>30</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L47" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>25</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E47" t="n">
-        <v>16</v>
-      </c>
-      <c r="F47" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
+      <c r="E48" t="n">
+        <v>16</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
         <v>100</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K48" t="n">
         <v>7000</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L48" t="n">
         <v>8000</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M48" t="n">
         <v>7500</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P47" t="n">
+      <c r="P48" t="n">
         <v>300</v>
       </c>
-      <c r="Q47" t="n">
-        <v>25</v>
-      </c>
-      <c r="R47" t="inlineStr">
+      <c r="Q48" t="n">
+        <v>25</v>
+      </c>
+      <c r="R48" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44812</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44509</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L4" t="n">
         <v>8000</v>
       </c>
-      <c r="L4" t="n">
-        <v>9000</v>
-      </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44495</v>
+        <v>44509</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>8000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44495</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>7562</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44522</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44161</v>
+        <v>44522</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
         <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>6764</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44161</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K9" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>7804</v>
+        <v>6764</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44530</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>7804</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44491</v>
+        <v>44530</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44491</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44167</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44553</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L14" t="n">
         <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44487</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44537</v>
+        <v>44487</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44482</v>
+        <v>44537</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44797</v>
+        <v>44482</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44799</v>
+        <v>44797</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44792</v>
+        <v>44799</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M21" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44803</v>
+        <v>44792</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1944,13 +1944,13 @@
         <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44160</v>
+        <v>44803</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>6688</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>268</v>
+        <v>540</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44473</v>
+        <v>44160</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>9750</v>
+        <v>6688</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44789</v>
+        <v>44473</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2160,13 +2160,13 @@
         <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M25" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44536</v>
+        <v>44789</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M26" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L27" t="n">
         <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44517</v>
+        <v>44529</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
         <v>6000</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
         <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44488</v>
+        <v>44540</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L31" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2664,13 +2664,13 @@
         <v>60</v>
       </c>
       <c r="K32" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44806</v>
+        <v>44466</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,13 +2736,13 @@
         <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L33" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M33" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44524</v>
+        <v>44806</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M34" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44512</v>
+        <v>44524</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2880,13 +2880,13 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L35" t="n">
         <v>7000</v>
       </c>
-      <c r="L35" t="n">
-        <v>8000</v>
-      </c>
       <c r="M35" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44448</v>
+        <v>44519</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44809</v>
+        <v>44448</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3096,13 +3096,13 @@
         <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44523</v>
+        <v>44809</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M39" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44566</v>
+        <v>44523</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L40" t="n">
         <v>7000</v>
       </c>
-      <c r="L40" t="n">
-        <v>7500</v>
-      </c>
       <c r="M40" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44476</v>
+        <v>44566</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K41" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L41" t="n">
         <v>7500</v>
       </c>
-      <c r="L41" t="n">
-        <v>8000</v>
-      </c>
       <c r="M41" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44533</v>
+        <v>44476</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K42" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L42" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M42" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44159</v>
+        <v>44489</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K45" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L45" t="n">
         <v>7000</v>
       </c>
-      <c r="L45" t="n">
-        <v>8000</v>
-      </c>
       <c r="M45" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L46" t="n">
         <v>8000</v>
       </c>
-      <c r="L46" t="n">
-        <v>9000</v>
-      </c>
       <c r="M46" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L47" t="n">
         <v>9000</v>
       </c>
       <c r="M47" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,58 +3789,130 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>30</v>
+      </c>
+      <c r="K48" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>25</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E48" t="n">
-        <v>16</v>
-      </c>
-      <c r="F48" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
+      <c r="E49" t="n">
+        <v>16</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
         <v>100</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K49" t="n">
         <v>7000</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>8000</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M49" t="n">
         <v>7500</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P48" t="n">
+      <c r="P49" t="n">
         <v>300</v>
       </c>
-      <c r="Q48" t="n">
-        <v>25</v>
-      </c>
-      <c r="R48" t="inlineStr">
+      <c r="Q49" t="n">
+        <v>25</v>
+      </c>
+      <c r="R49" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44512</v>
+        <v>44813</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2952,13 +2952,13 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44448</v>
+        <v>44519</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44809</v>
+        <v>44448</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3168,13 +3168,13 @@
         <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44523</v>
+        <v>44809</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M40" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44566</v>
+        <v>44523</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K41" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L41" t="n">
         <v>7000</v>
       </c>
-      <c r="L41" t="n">
-        <v>7500</v>
-      </c>
       <c r="M41" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44476</v>
+        <v>44566</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K42" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L42" t="n">
         <v>7500</v>
       </c>
-      <c r="L42" t="n">
-        <v>8000</v>
-      </c>
       <c r="M42" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44533</v>
+        <v>44476</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K43" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K44" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M44" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44159</v>
+        <v>44489</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K46" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L46" t="n">
         <v>7000</v>
       </c>
-      <c r="L46" t="n">
-        <v>8000</v>
-      </c>
       <c r="M46" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L47" t="n">
         <v>8000</v>
       </c>
-      <c r="L47" t="n">
-        <v>9000</v>
-      </c>
       <c r="M47" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L48" t="n">
         <v>9000</v>
       </c>
       <c r="M48" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,58 +3861,130 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>30</v>
+      </c>
+      <c r="K49" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L49" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>25</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E49" t="n">
-        <v>16</v>
-      </c>
-      <c r="F49" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
+      <c r="E50" t="n">
+        <v>16</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
         <v>100</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K50" t="n">
         <v>7000</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L50" t="n">
         <v>8000</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M50" t="n">
         <v>7500</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P49" t="n">
+      <c r="P50" t="n">
         <v>300</v>
       </c>
-      <c r="Q49" t="n">
-        <v>25</v>
-      </c>
-      <c r="R49" t="inlineStr">
+      <c r="Q50" t="n">
+        <v>25</v>
+      </c>
+      <c r="R50" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44533</v>
+        <v>44816</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3528,13 +3528,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L44" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M44" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M45" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44159</v>
+        <v>44489</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K47" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L47" t="n">
         <v>7000</v>
       </c>
-      <c r="L47" t="n">
-        <v>8000</v>
-      </c>
       <c r="M47" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L48" t="n">
         <v>8000</v>
       </c>
-      <c r="L48" t="n">
-        <v>9000</v>
-      </c>
       <c r="M48" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K49" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L49" t="n">
         <v>9000</v>
       </c>
       <c r="M49" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,58 +3933,130 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>30</v>
+      </c>
+      <c r="K50" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L50" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M50" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>25</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E50" t="n">
-        <v>16</v>
-      </c>
-      <c r="F50" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
+      <c r="E51" t="n">
+        <v>16</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
         <v>100</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K51" t="n">
         <v>7000</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L51" t="n">
         <v>8000</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M51" t="n">
         <v>7500</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P50" t="n">
+      <c r="P51" t="n">
         <v>300</v>
       </c>
-      <c r="Q50" t="n">
-        <v>25</v>
-      </c>
-      <c r="R50" t="inlineStr">
+      <c r="Q51" t="n">
+        <v>25</v>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44161</v>
+        <v>44819</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>6764</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>271</v>
+        <v>500</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44161</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K10" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>7804</v>
+        <v>6764</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44530</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>7804</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44491</v>
+        <v>44530</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44491</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44553</v>
+        <v>44167</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44553</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L15" t="n">
         <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44487</v>
+        <v>44526</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44537</v>
+        <v>44487</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44482</v>
+        <v>44537</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44797</v>
+        <v>44482</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44799</v>
+        <v>44797</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44792</v>
+        <v>44799</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M22" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44803</v>
+        <v>44792</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2016,13 +2016,13 @@
         <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44160</v>
+        <v>44803</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>6688</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>268</v>
+        <v>540</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44473</v>
+        <v>44160</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>9750</v>
+        <v>6688</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44789</v>
+        <v>44473</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2232,13 +2232,13 @@
         <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L26" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44536</v>
+        <v>44789</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M27" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L28" t="n">
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44517</v>
+        <v>44529</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
         <v>6000</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K31" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L31" t="n">
         <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44488</v>
+        <v>44540</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,13 +2736,13 @@
         <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44806</v>
+        <v>44466</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2808,13 +2808,13 @@
         <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L34" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44524</v>
+        <v>44806</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44813</v>
+        <v>44524</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2952,13 +2952,13 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44512</v>
+        <v>44813</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3024,13 +3024,13 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44448</v>
+        <v>44519</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44809</v>
+        <v>44448</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3240,13 +3240,13 @@
         <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L40" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44523</v>
+        <v>44809</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K41" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L41" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44566</v>
+        <v>44523</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K42" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L42" t="n">
         <v>7000</v>
       </c>
-      <c r="L42" t="n">
-        <v>7500</v>
-      </c>
       <c r="M42" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44476</v>
+        <v>44566</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K43" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L43" t="n">
         <v>7500</v>
       </c>
-      <c r="L43" t="n">
-        <v>8000</v>
-      </c>
       <c r="M43" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44816</v>
+        <v>44476</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K44" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L44" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M44" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44533</v>
+        <v>44816</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3600,13 +3600,13 @@
         <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M45" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K46" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M46" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44159</v>
+        <v>44489</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L47" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M47" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K48" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L48" t="n">
         <v>7000</v>
       </c>
-      <c r="L48" t="n">
-        <v>8000</v>
-      </c>
       <c r="M48" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L49" t="n">
         <v>8000</v>
       </c>
-      <c r="L49" t="n">
-        <v>9000</v>
-      </c>
       <c r="M49" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44484</v>
+        <v>44504</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K50" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L50" t="n">
         <v>9000</v>
       </c>
       <c r="M50" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,58 +4005,130 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E51" t="n">
+        <v>16</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>30</v>
+      </c>
+      <c r="K51" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L51" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M51" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>25</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
         <v>44516</v>
       </c>
-      <c r="E51" t="n">
-        <v>16</v>
-      </c>
-      <c r="F51" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
+      <c r="E52" t="n">
+        <v>16</v>
+      </c>
+      <c r="F52" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
         <v>100</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K52" t="n">
         <v>7000</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L52" t="n">
         <v>8000</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M52" t="n">
         <v>7500</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P51" t="n">
+      <c r="P52" t="n">
         <v>300</v>
       </c>
-      <c r="Q51" t="n">
-        <v>25</v>
-      </c>
-      <c r="R51" t="inlineStr">
+      <c r="Q52" t="n">
+        <v>25</v>
+      </c>
+      <c r="R52" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44165</v>
+        <v>44797</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>8263</v>
+        <v>12000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44812</v>
+        <v>44491</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44809</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44509</v>
+        <v>44482</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
         <v>8000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44495</v>
+        <v>44799</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44536</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>80</v>
       </c>
       <c r="K7" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L7" t="n">
         <v>7000</v>
       </c>
-      <c r="L7" t="n">
-        <v>8000</v>
-      </c>
       <c r="M7" t="n">
-        <v>7562</v>
+        <v>6750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44522</v>
+        <v>44537</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L8" t="n">
         <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44819</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1008,13 +1008,13 @@
         <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44161</v>
+        <v>44489</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44524</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>7804</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44530</v>
+        <v>44792</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44491</v>
+        <v>44516</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L13" t="n">
         <v>8000</v>
       </c>
-      <c r="L13" t="n">
-        <v>9000</v>
-      </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44167</v>
+        <v>44523</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44553</v>
+        <v>44816</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44526</v>
+        <v>44167</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
         <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44487</v>
+        <v>44530</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44537</v>
+        <v>44540</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>6500</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44482</v>
+        <v>44518</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44797</v>
+        <v>44509</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44799</v>
+        <v>44165</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K22" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M22" t="n">
-        <v>11000</v>
+        <v>8263</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>440</v>
+        <v>331</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44792</v>
+        <v>44806</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44803</v>
+        <v>44812</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L24" t="n">
         <v>13000</v>
       </c>
-      <c r="L24" t="n">
-        <v>14000</v>
-      </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44160</v>
+        <v>44803</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="n">
-        <v>6688</v>
+        <v>13500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>268</v>
+        <v>540</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44473</v>
+        <v>44819</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44789</v>
+        <v>44533</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M28" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44529</v>
+        <v>44504</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2520,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44518</v>
+        <v>44813</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44540</v>
+        <v>44487</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K32" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L33" t="n">
         <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44466</v>
+        <v>44495</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2808,13 +2808,13 @@
         <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44806</v>
+        <v>44476</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>13500</v>
+        <v>7750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>540</v>
+        <v>310</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44524</v>
+        <v>44512</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2952,13 +2952,13 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44813</v>
+        <v>44566</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M37" t="n">
-        <v>12500</v>
+        <v>7250</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44512</v>
+        <v>44160</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L38" t="n">
         <v>7000</v>
       </c>
-      <c r="L38" t="n">
-        <v>8000</v>
-      </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>6688</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44519</v>
+        <v>44159</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K39" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L39" t="n">
         <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>6500</v>
+        <v>6738</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44448</v>
+        <v>44166</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>14500</v>
+        <v>7804</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>580</v>
+        <v>312</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44809</v>
+        <v>44511</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M41" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44523</v>
+        <v>44161</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K42" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L42" t="n">
         <v>7000</v>
       </c>
       <c r="M42" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44566</v>
+        <v>44466</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3456,13 +3456,13 @@
         <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L43" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>7250</v>
+        <v>11500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>290</v>
+        <v>460</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44476</v>
+        <v>44448</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L44" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>7750</v>
+        <v>14500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44816</v>
+        <v>44789</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K45" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L45" t="n">
         <v>12000</v>
       </c>
-      <c r="L45" t="n">
-        <v>13000</v>
-      </c>
       <c r="M45" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44533</v>
+        <v>44484</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L46" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44489</v>
+        <v>44526</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L47" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M47" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44159</v>
+        <v>44529</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L48" t="n">
         <v>7000</v>
       </c>
       <c r="M48" t="n">
-        <v>6738</v>
+        <v>6500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44515</v>
+        <v>44522</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3888,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L49" t="n">
         <v>7000</v>
       </c>
-      <c r="L49" t="n">
-        <v>8000</v>
-      </c>
       <c r="M49" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44504</v>
+        <v>44162</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K50" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L50" t="n">
         <v>8000</v>
       </c>
-      <c r="L50" t="n">
-        <v>9000</v>
-      </c>
       <c r="M50" t="n">
-        <v>8500</v>
+        <v>7562</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44484</v>
+        <v>44517</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L51" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M51" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44516</v>
+        <v>44553</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4104,13 +4104,13 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L52" t="n">
         <v>7000</v>
       </c>
-      <c r="L52" t="n">
-        <v>8000</v>
-      </c>
       <c r="M52" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44512</v>
+        <v>44830</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2952,13 +2952,13 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M36" t="n">
-        <v>7500</v>
+        <v>9250</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44566</v>
+        <v>44512</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,17 +3021,17 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
         <v>7000</v>
       </c>
       <c r="L37" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M37" t="n">
         <v>7500</v>
       </c>
-      <c r="M37" t="n">
-        <v>7250</v>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44160</v>
+        <v>44566</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M38" t="n">
-        <v>6688</v>
+        <v>7250</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
         <v>6500</v>
@@ -3174,7 +3174,7 @@
         <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>6738</v>
+        <v>6688</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K40" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L40" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M40" t="n">
-        <v>7804</v>
+        <v>6738</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K41" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L41" t="n">
         <v>8000</v>
       </c>
       <c r="M41" t="n">
-        <v>7500</v>
+        <v>7804</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44161</v>
+        <v>44511</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L42" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M42" t="n">
-        <v>6764</v>
+        <v>7500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44466</v>
+        <v>44161</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K43" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L43" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="n">
-        <v>11500</v>
+        <v>6764</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>460</v>
+        <v>271</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44448</v>
+        <v>44466</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3528,13 +3528,13 @@
         <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44789</v>
+        <v>44448</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3600,13 +3600,13 @@
         <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L45" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44484</v>
+        <v>44789</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M46" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44526</v>
+        <v>44484</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L47" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M47" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44529</v>
+        <v>44526</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44162</v>
+        <v>44522</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L50" t="n">
         <v>7000</v>
       </c>
-      <c r="L50" t="n">
-        <v>8000</v>
-      </c>
       <c r="M50" t="n">
-        <v>7562</v>
+        <v>6500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44517</v>
+        <v>44162</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L51" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M51" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44553</v>
+        <v>44517</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4104,31 +4104,103 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L52" t="n">
         <v>7000</v>
       </c>
       <c r="M52" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>25</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44553</v>
+      </c>
+      <c r="E53" t="n">
+        <v>16</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>100</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M53" t="n">
         <v>6750</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P52" t="n">
+      <c r="P53" t="n">
         <v>270</v>
       </c>
-      <c r="Q52" t="n">
-        <v>25</v>
-      </c>
-      <c r="R52" t="inlineStr">
+      <c r="Q53" t="n">
+        <v>25</v>
+      </c>
+      <c r="R53" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44159</v>
+        <v>44837</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K40" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>6738</v>
+        <v>9000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44166</v>
+        <v>44837</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K41" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L41" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M41" t="n">
-        <v>7804</v>
+        <v>9500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44511</v>
+        <v>44159</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K42" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L42" t="n">
         <v>7000</v>
       </c>
-      <c r="L42" t="n">
-        <v>8000</v>
-      </c>
       <c r="M42" t="n">
-        <v>7500</v>
+        <v>6738</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44161</v>
+        <v>44166</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K43" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>6764</v>
+        <v>7804</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M44" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44448</v>
+        <v>44161</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K45" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L45" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M45" t="n">
-        <v>14500</v>
+        <v>6764</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>580</v>
+        <v>271</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44789</v>
+        <v>44466</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44484</v>
+        <v>44448</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L47" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M47" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44526</v>
+        <v>44789</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L48" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M48" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44529</v>
+        <v>44484</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K49" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L49" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M49" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44522</v>
+        <v>44526</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44162</v>
+        <v>44529</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K51" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L51" t="n">
         <v>7000</v>
       </c>
-      <c r="L51" t="n">
-        <v>8000</v>
-      </c>
       <c r="M51" t="n">
-        <v>7562</v>
+        <v>6500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44517</v>
+        <v>44522</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4149,58 +4149,202 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="E53" t="n">
+        <v>16</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>80</v>
+      </c>
+      <c r="K53" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>7562</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>302</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>25</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44517</v>
+      </c>
+      <c r="E54" t="n">
+        <v>16</v>
+      </c>
+      <c r="F54" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>100</v>
+      </c>
+      <c r="K54" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>25</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
         <v>44553</v>
       </c>
-      <c r="E53" t="n">
-        <v>16</v>
-      </c>
-      <c r="F53" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
+      <c r="E55" t="n">
+        <v>16</v>
+      </c>
+      <c r="F55" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
         <v>100</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K55" t="n">
         <v>6500</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L55" t="n">
         <v>7000</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M55" t="n">
         <v>6750</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P53" t="n">
+      <c r="P55" t="n">
         <v>270</v>
       </c>
-      <c r="Q53" t="n">
-        <v>25</v>
-      </c>
-      <c r="R53" t="inlineStr">
+      <c r="Q55" t="n">
+        <v>25</v>
+      </c>
+      <c r="R55" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K40" t="n">
         <v>9000</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M40" t="n">
-        <v>9000</v>
+        <v>9250</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>30</v>
       </c>
       <c r="K41" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L41" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M41" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44159</v>
+        <v>44837</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K42" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L42" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M42" t="n">
-        <v>6738</v>
+        <v>9500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K43" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L43" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="n">
-        <v>7804</v>
+        <v>6738</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K44" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L44" t="n">
         <v>8000</v>
       </c>
       <c r="M44" t="n">
-        <v>7500</v>
+        <v>7804</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44161</v>
+        <v>44511</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L45" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M45" t="n">
-        <v>6764</v>
+        <v>7500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44466</v>
+        <v>44161</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K46" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L46" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M46" t="n">
-        <v>11500</v>
+        <v>6764</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>460</v>
+        <v>271</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44448</v>
+        <v>44466</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3744,13 +3744,13 @@
         <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M47" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44789</v>
+        <v>44448</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3816,13 +3816,13 @@
         <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44484</v>
+        <v>44789</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K49" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L49" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M49" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44526</v>
+        <v>44484</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K50" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L50" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M50" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44529</v>
+        <v>44526</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44162</v>
+        <v>44522</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L53" t="n">
         <v>7000</v>
       </c>
-      <c r="L53" t="n">
-        <v>8000</v>
-      </c>
       <c r="M53" t="n">
-        <v>7562</v>
+        <v>6500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44517</v>
+        <v>44162</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K54" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L54" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M54" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44553</v>
+        <v>44517</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4320,31 +4320,103 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L55" t="n">
         <v>7000</v>
       </c>
       <c r="M55" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>25</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>44553</v>
+      </c>
+      <c r="E56" t="n">
+        <v>16</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>100</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M56" t="n">
         <v>6750</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P55" t="n">
+      <c r="P56" t="n">
         <v>270</v>
       </c>
-      <c r="Q55" t="n">
-        <v>25</v>
-      </c>
-      <c r="R55" t="inlineStr">
+      <c r="Q56" t="n">
+        <v>25</v>
+      </c>
+      <c r="R56" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44489</v>
+        <v>44847</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
         <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44524</v>
+        <v>44489</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44792</v>
+        <v>44524</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44516</v>
+        <v>44792</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44523</v>
+        <v>44516</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44816</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44167</v>
+        <v>44816</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44167</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44530</v>
+        <v>44488</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44540</v>
+        <v>44530</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
         <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44518</v>
+        <v>44540</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L20" t="n">
         <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44509</v>
+        <v>44518</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44165</v>
+        <v>44509</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,17 +1941,17 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
         <v>8000</v>
       </c>
       <c r="L22" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M22" t="n">
         <v>8500</v>
       </c>
-      <c r="M22" t="n">
-        <v>8263</v>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44806</v>
+        <v>44165</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>8263</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>540</v>
+        <v>331</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2088,13 +2088,13 @@
         <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44803</v>
+        <v>44812</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L25" t="n">
         <v>13000</v>
       </c>
-      <c r="L25" t="n">
-        <v>14000</v>
-      </c>
       <c r="M25" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44819</v>
+        <v>44803</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M26" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44533</v>
+        <v>44819</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2304,13 +2304,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44533</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L28" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44504</v>
+        <v>44473</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2448,13 +2448,13 @@
         <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44515</v>
+        <v>44504</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44813</v>
+        <v>44515</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2592,13 +2592,13 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44487</v>
+        <v>44813</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M32" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>30</v>
       </c>
       <c r="K33" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44495</v>
+        <v>44487</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L34" t="n">
         <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44476</v>
+        <v>44495</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44830</v>
+        <v>44476</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L36" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>9250</v>
+        <v>7750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44512</v>
+        <v>44830</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3024,13 +3024,13 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>9250</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44566</v>
+        <v>44512</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,17 +3093,17 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
         <v>7000</v>
       </c>
       <c r="L38" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M38" t="n">
         <v>7500</v>
       </c>
-      <c r="M38" t="n">
-        <v>7250</v>
-      </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44160</v>
+        <v>44566</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M39" t="n">
-        <v>6688</v>
+        <v>7250</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44845</v>
+        <v>44160</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L40" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M40" t="n">
-        <v>9250</v>
+        <v>6688</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K41" t="n">
         <v>9000</v>
       </c>
       <c r="L41" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M41" t="n">
-        <v>9000</v>
+        <v>9250</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
         <v>30</v>
       </c>
       <c r="K42" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L42" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44159</v>
+        <v>44837</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K43" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M43" t="n">
-        <v>6738</v>
+        <v>9500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K44" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L44" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M44" t="n">
-        <v>7804</v>
+        <v>6738</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K45" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L45" t="n">
         <v>8000</v>
       </c>
       <c r="M45" t="n">
-        <v>7500</v>
+        <v>7804</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44161</v>
+        <v>44511</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L46" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M46" t="n">
-        <v>6764</v>
+        <v>7500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44466</v>
+        <v>44161</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K47" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L47" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M47" t="n">
-        <v>11500</v>
+        <v>6764</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>460</v>
+        <v>271</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44448</v>
+        <v>44466</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3816,13 +3816,13 @@
         <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M48" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44789</v>
+        <v>44448</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3888,13 +3888,13 @@
         <v>60</v>
       </c>
       <c r="K49" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44484</v>
+        <v>44789</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K50" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L50" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M50" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44526</v>
+        <v>44484</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K51" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L51" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M51" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44529</v>
+        <v>44526</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44162</v>
+        <v>44522</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L54" t="n">
         <v>7000</v>
       </c>
-      <c r="L54" t="n">
-        <v>8000</v>
-      </c>
       <c r="M54" t="n">
-        <v>7562</v>
+        <v>6500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44517</v>
+        <v>44162</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K55" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L55" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M55" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44553</v>
+        <v>44517</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4392,31 +4392,103 @@
         <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L56" t="n">
         <v>7000</v>
       </c>
       <c r="M56" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Provincia de Diguillín</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>25</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>44553</v>
+      </c>
+      <c r="E57" t="n">
+        <v>16</v>
+      </c>
+      <c r="F57" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L57" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M57" t="n">
         <v>6750</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P56" t="n">
+      <c r="P57" t="n">
         <v>270</v>
       </c>
-      <c r="Q56" t="n">
-        <v>25</v>
-      </c>
-      <c r="R56" t="inlineStr">
+      <c r="Q57" t="n">
+        <v>25</v>
+      </c>
+      <c r="R57" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44797</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44491</v>
+        <v>44792</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44809</v>
+        <v>44847</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44482</v>
+        <v>44523</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44799</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
         <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>44524</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
         <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44537</v>
+        <v>44482</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44476</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44847</v>
+        <v>44809</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44489</v>
+        <v>44812</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1152,13 +1152,13 @@
         <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44524</v>
+        <v>44797</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44792</v>
+        <v>44515</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44516</v>
+        <v>44830</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>9250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44473</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44816</v>
+        <v>44512</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44167</v>
+        <v>44566</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44488</v>
+        <v>44509</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
         <v>8000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44540</v>
+        <v>44819</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44518</v>
+        <v>44162</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44509</v>
+        <v>44837</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L22" t="n">
         <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44165</v>
+        <v>44837</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L23" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="M23" t="n">
-        <v>8263</v>
+        <v>9500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44806</v>
+        <v>44536</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44812</v>
+        <v>44159</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>12500</v>
+        <v>6738</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44803</v>
+        <v>44540</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44819</v>
+        <v>44553</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44533</v>
+        <v>44160</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2382,7 +2382,7 @@
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6750</v>
+        <v>6688</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44473</v>
+        <v>44165</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K29" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M29" t="n">
-        <v>9750</v>
+        <v>8263</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44504</v>
+        <v>44519</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44515</v>
+        <v>44161</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K31" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L31" t="n">
         <v>7000</v>
       </c>
-      <c r="L31" t="n">
-        <v>8000</v>
-      </c>
       <c r="M31" t="n">
-        <v>7500</v>
+        <v>6764</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44813</v>
+        <v>44533</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L32" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
         <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44487</v>
+        <v>44516</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44495</v>
+        <v>44448</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2880,13 +2880,13 @@
         <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44476</v>
+        <v>44529</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44830</v>
+        <v>44522</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3024,13 +3024,13 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L37" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>9250</v>
+        <v>6500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44512</v>
+        <v>44789</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44566</v>
+        <v>44537</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3168,13 +3168,13 @@
         <v>60</v>
       </c>
       <c r="K39" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L39" t="n">
         <v>7000</v>
       </c>
-      <c r="L39" t="n">
-        <v>7500</v>
-      </c>
       <c r="M39" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44160</v>
+        <v>44806</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M40" t="n">
-        <v>6688</v>
+        <v>13500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>268</v>
+        <v>540</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44845</v>
+        <v>44526</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L41" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M41" t="n">
-        <v>9250</v>
+        <v>6500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44837</v>
+        <v>44504</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L42" t="n">
         <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44837</v>
+        <v>44166</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K43" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L43" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>9500</v>
+        <v>7804</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44159</v>
+        <v>44518</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L44" t="n">
         <v>7000</v>
       </c>
       <c r="M44" t="n">
-        <v>6738</v>
+        <v>6500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44511</v>
+        <v>44816</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K46" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L46" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M46" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44161</v>
+        <v>44803</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>6764</v>
+        <v>13500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>271</v>
+        <v>540</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44466</v>
+        <v>44517</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L48" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M48" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44448</v>
+        <v>44487</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K49" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L49" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M49" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>580</v>
+        <v>320</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44789</v>
+        <v>44487</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K50" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L50" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M50" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44484</v>
+        <v>44167</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K51" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L51" t="n">
         <v>9000</v>
       </c>
       <c r="M51" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44526</v>
+        <v>44484</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K52" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L52" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M52" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44529</v>
+        <v>44495</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K53" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L53" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M53" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44522</v>
+        <v>44799</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K54" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L54" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M54" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44162</v>
+        <v>44813</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L55" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M55" t="n">
-        <v>7562</v>
+        <v>12500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>302</v>
+        <v>500</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44517</v>
+        <v>44845</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K56" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L56" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M56" t="n">
-        <v>6500</v>
+        <v>9250</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44553</v>
+        <v>44489</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K57" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L57" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M57" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44518</v>
+        <v>44855</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K44" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L44" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M44" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44488</v>
+        <v>44518</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3600,13 +3600,13 @@
         <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M45" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44816</v>
+        <v>44488</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K47" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L47" t="n">
         <v>13000</v>
       </c>
-      <c r="L47" t="n">
-        <v>14000</v>
-      </c>
       <c r="M47" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44517</v>
+        <v>44803</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L48" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M48" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L49" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M49" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
         <v>30</v>
       </c>
       <c r="K50" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L50" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44167</v>
+        <v>44487</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K51" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L51" t="n">
         <v>9000</v>
       </c>
       <c r="M51" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44484</v>
+        <v>44167</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K52" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L52" t="n">
         <v>9000</v>
       </c>
       <c r="M52" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K53" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L53" t="n">
         <v>9000</v>
       </c>
       <c r="M53" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44799</v>
+        <v>44495</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K54" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L54" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M54" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44813</v>
+        <v>44799</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K55" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L55" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M55" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44845</v>
+        <v>44813</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L56" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M56" t="n">
-        <v>9250</v>
+        <v>12500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,58 +4437,130 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E57" t="n">
+        <v>16</v>
+      </c>
+      <c r="F57" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>120</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>25</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E57" t="n">
-        <v>16</v>
-      </c>
-      <c r="F57" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
+      <c r="E58" t="n">
+        <v>16</v>
+      </c>
+      <c r="F58" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
         <v>60</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K58" t="n">
         <v>8000</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L58" t="n">
         <v>9000</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M58" t="n">
         <v>8500</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P57" t="n">
+      <c r="P58" t="n">
         <v>340</v>
       </c>
-      <c r="Q57" t="n">
-        <v>25</v>
-      </c>
-      <c r="R57" t="inlineStr">
+      <c r="Q58" t="n">
+        <v>25</v>
+      </c>
+      <c r="R58" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44524</v>
+        <v>44859</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
         <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M7" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44482</v>
+        <v>44524</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44476</v>
+        <v>44482</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44809</v>
+        <v>44476</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44812</v>
+        <v>44809</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44797</v>
+        <v>44812</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1227,10 +1227,10 @@
         <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44515</v>
+        <v>44797</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44830</v>
+        <v>44515</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>9250</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44473</v>
+        <v>44830</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L15" t="n">
         <v>9500</v>
       </c>
-      <c r="L15" t="n">
-        <v>10000</v>
-      </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>9250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44512</v>
+        <v>44473</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44566</v>
+        <v>44512</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,17 +1581,17 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
         <v>7000</v>
       </c>
       <c r="L17" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M17" t="n">
         <v>7500</v>
       </c>
-      <c r="M17" t="n">
-        <v>7250</v>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44509</v>
+        <v>44566</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1728,13 +1728,13 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44819</v>
+        <v>44530</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44162</v>
+        <v>44819</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>7562</v>
+        <v>12500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>302</v>
+        <v>500</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44837</v>
+        <v>44162</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>9000</v>
+        <v>7562</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L23" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44536</v>
+        <v>44837</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M24" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44159</v>
+        <v>44536</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
         <v>6500</v>
@@ -2166,7 +2166,7 @@
         <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>6738</v>
+        <v>6750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44540</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K26" t="n">
         <v>6500</v>
@@ -2238,7 +2238,7 @@
         <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>6750</v>
+        <v>6738</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44553</v>
+        <v>44540</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
         <v>6500</v>
@@ -2382,7 +2382,7 @@
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6688</v>
+        <v>6750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44165</v>
+        <v>44160</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L29" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>8263</v>
+        <v>6688</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44519</v>
+        <v>44165</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44161</v>
+        <v>44519</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L31" t="n">
         <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>6764</v>
+        <v>6500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44533</v>
+        <v>44161</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K32" t="n">
         <v>6500</v>
@@ -2670,7 +2670,7 @@
         <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>6750</v>
+        <v>6764</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44516</v>
+        <v>44491</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44448</v>
+        <v>44516</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44529</v>
+        <v>44448</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44789</v>
+        <v>44522</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L38" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44537</v>
+        <v>44789</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3168,13 +3168,13 @@
         <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M39" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44806</v>
+        <v>44537</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3240,13 +3240,13 @@
         <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L40" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M40" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44526</v>
+        <v>44806</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K41" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M41" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44504</v>
+        <v>44526</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L42" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M42" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44166</v>
+        <v>44504</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K44" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L44" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M44" t="n">
-        <v>7250</v>
+        <v>7804</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44518</v>
+        <v>44855</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K45" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L45" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M45" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44488</v>
+        <v>44518</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3672,13 +3672,13 @@
         <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M46" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44816</v>
+        <v>44488</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L47" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M47" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K48" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L48" t="n">
         <v>13000</v>
       </c>
-      <c r="L48" t="n">
-        <v>14000</v>
-      </c>
       <c r="M48" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44517</v>
+        <v>44803</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K49" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L49" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M49" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L50" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M50" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
         <v>30</v>
       </c>
       <c r="K51" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L51" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M51" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44167</v>
+        <v>44487</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K52" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L52" t="n">
         <v>9000</v>
       </c>
       <c r="M52" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44484</v>
+        <v>44167</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K53" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L53" t="n">
         <v>9000</v>
       </c>
       <c r="M53" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K54" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L54" t="n">
         <v>9000</v>
       </c>
       <c r="M54" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44799</v>
+        <v>44495</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K55" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L55" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M55" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44813</v>
+        <v>44799</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K56" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L56" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M56" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44845</v>
+        <v>44813</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L57" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M57" t="n">
-        <v>9250</v>
+        <v>12500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,58 +4509,130 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E58" t="n">
+        <v>16</v>
+      </c>
+      <c r="F58" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>120</v>
+      </c>
+      <c r="K58" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>25</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E58" t="n">
-        <v>16</v>
-      </c>
-      <c r="F58" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
+      <c r="E59" t="n">
+        <v>16</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
         <v>60</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K59" t="n">
         <v>8000</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L59" t="n">
         <v>9000</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M59" t="n">
         <v>8500</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P58" t="n">
+      <c r="P59" t="n">
         <v>340</v>
       </c>
-      <c r="Q58" t="n">
-        <v>25</v>
-      </c>
-      <c r="R58" t="inlineStr">
+      <c r="Q59" t="n">
+        <v>25</v>
+      </c>
+      <c r="R59" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44860</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M2" t="n">
-        <v>7500</v>
+        <v>6250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44792</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44847</v>
+        <v>44792</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44523</v>
+        <v>44847</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44523</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44859</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>6250</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44524</v>
+        <v>44859</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
         <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44482</v>
+        <v>44524</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44476</v>
+        <v>44482</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44809</v>
+        <v>44476</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44812</v>
+        <v>44809</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44797</v>
+        <v>44812</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1299,10 +1299,10 @@
         <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44515</v>
+        <v>44797</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44830</v>
+        <v>44515</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1440,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>9250</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44473</v>
+        <v>44830</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L16" t="n">
         <v>9500</v>
       </c>
-      <c r="L16" t="n">
-        <v>10000</v>
-      </c>
       <c r="M16" t="n">
-        <v>9750</v>
+        <v>9250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44512</v>
+        <v>44473</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44566</v>
+        <v>44512</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,17 +1653,17 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
         <v>7000</v>
       </c>
       <c r="L18" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M18" t="n">
         <v>7500</v>
       </c>
-      <c r="M18" t="n">
-        <v>7250</v>
-      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44509</v>
+        <v>44566</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1800,13 +1800,13 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44819</v>
+        <v>44530</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44162</v>
+        <v>44819</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1944,13 +1944,13 @@
         <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>7562</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>302</v>
+        <v>500</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44837</v>
+        <v>44162</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>9000</v>
+        <v>7562</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L24" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44536</v>
+        <v>44837</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K25" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M25" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>44536</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
         <v>6500</v>
@@ -2238,7 +2238,7 @@
         <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>6738</v>
+        <v>6750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44540</v>
+        <v>44159</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K27" t="n">
         <v>6500</v>
@@ -2310,7 +2310,7 @@
         <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>6750</v>
+        <v>6738</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44553</v>
+        <v>44540</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
         <v>6500</v>
@@ -2454,7 +2454,7 @@
         <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>6688</v>
+        <v>6750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44165</v>
+        <v>44160</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L30" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>8263</v>
+        <v>6688</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44519</v>
+        <v>44165</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44161</v>
+        <v>44519</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L32" t="n">
         <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>6764</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44533</v>
+        <v>44161</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K33" t="n">
         <v>6500</v>
@@ -2742,7 +2742,7 @@
         <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>6750</v>
+        <v>6764</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44516</v>
+        <v>44491</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44448</v>
+        <v>44516</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44448</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44789</v>
+        <v>44522</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L39" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44537</v>
+        <v>44789</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3240,13 +3240,13 @@
         <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M40" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44806</v>
+        <v>44537</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3312,13 +3312,13 @@
         <v>60</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L41" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M41" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44526</v>
+        <v>44806</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L42" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M42" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44504</v>
+        <v>44526</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44166</v>
+        <v>44504</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K45" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L45" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M45" t="n">
-        <v>7250</v>
+        <v>7804</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44518</v>
+        <v>44855</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K46" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L46" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M46" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44488</v>
+        <v>44518</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3744,13 +3744,13 @@
         <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L47" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M47" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44816</v>
+        <v>44488</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M48" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K49" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L49" t="n">
         <v>13000</v>
       </c>
-      <c r="L49" t="n">
-        <v>14000</v>
-      </c>
       <c r="M49" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44517</v>
+        <v>44803</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L50" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M50" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L51" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M51" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
         <v>30</v>
       </c>
       <c r="K52" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L52" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M52" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44167</v>
+        <v>44487</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K53" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L53" t="n">
         <v>9000</v>
       </c>
       <c r="M53" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44484</v>
+        <v>44167</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K54" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L54" t="n">
         <v>9000</v>
       </c>
       <c r="M54" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K55" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L55" t="n">
         <v>9000</v>
       </c>
       <c r="M55" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44799</v>
+        <v>44495</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K56" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L56" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M56" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44813</v>
+        <v>44799</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L57" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M57" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44845</v>
+        <v>44813</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L58" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M58" t="n">
-        <v>9250</v>
+        <v>12500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,58 +4581,130 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E59" t="n">
+        <v>16</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>120</v>
+      </c>
+      <c r="K59" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>25</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E59" t="n">
-        <v>16</v>
-      </c>
-      <c r="F59" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
+      <c r="E60" t="n">
+        <v>16</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
         <v>60</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K60" t="n">
         <v>8000</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L60" t="n">
         <v>9000</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M60" t="n">
         <v>8500</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P59" t="n">
+      <c r="P60" t="n">
         <v>340</v>
       </c>
-      <c r="Q59" t="n">
-        <v>25</v>
-      </c>
-      <c r="R59" t="inlineStr">
+      <c r="Q60" t="n">
+        <v>25</v>
+      </c>
+      <c r="R60" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44529</v>
+        <v>44873</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L38" t="n">
         <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44789</v>
+        <v>44522</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L40" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M40" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44537</v>
+        <v>44789</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3312,13 +3312,13 @@
         <v>60</v>
       </c>
       <c r="K41" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L41" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M41" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44806</v>
+        <v>44537</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3384,13 +3384,13 @@
         <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L42" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M42" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44526</v>
+        <v>44806</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M43" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44504</v>
+        <v>44526</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M44" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44166</v>
+        <v>44504</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K46" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L46" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M46" t="n">
-        <v>7250</v>
+        <v>7804</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44518</v>
+        <v>44855</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K47" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L47" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M47" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44488</v>
+        <v>44518</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3816,13 +3816,13 @@
         <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L48" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M48" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44816</v>
+        <v>44488</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K49" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L49" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M49" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K50" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L50" t="n">
         <v>13000</v>
       </c>
-      <c r="L50" t="n">
-        <v>14000</v>
-      </c>
       <c r="M50" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44517</v>
+        <v>44803</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K51" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L51" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M51" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L52" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M52" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>30</v>
       </c>
       <c r="K53" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L53" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M53" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44167</v>
+        <v>44487</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K54" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L54" t="n">
         <v>9000</v>
       </c>
       <c r="M54" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44484</v>
+        <v>44167</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K55" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L55" t="n">
         <v>9000</v>
       </c>
       <c r="M55" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K56" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L56" t="n">
         <v>9000</v>
       </c>
       <c r="M56" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44799</v>
+        <v>44495</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K57" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L57" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M57" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44813</v>
+        <v>44799</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K58" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L58" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M58" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44845</v>
+        <v>44813</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L59" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M59" t="n">
-        <v>9250</v>
+        <v>12500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,58 +4653,130 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E60" t="n">
+        <v>16</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>120</v>
+      </c>
+      <c r="K60" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M60" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>25</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E60" t="n">
-        <v>16</v>
-      </c>
-      <c r="F60" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
+      <c r="E61" t="n">
+        <v>16</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
         <v>60</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K61" t="n">
         <v>8000</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L61" t="n">
         <v>9000</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M61" t="n">
         <v>8500</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P60" t="n">
+      <c r="P61" t="n">
         <v>340</v>
       </c>
-      <c r="Q60" t="n">
-        <v>25</v>
-      </c>
-      <c r="R60" t="inlineStr">
+      <c r="Q61" t="n">
+        <v>25</v>
+      </c>
+      <c r="R61" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44537</v>
+        <v>44875</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K42" t="n">
         <v>6500</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44806</v>
+        <v>44537</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3456,13 +3456,13 @@
         <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L43" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44526</v>
+        <v>44806</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L44" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M44" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44504</v>
+        <v>44526</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M45" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44166</v>
+        <v>44504</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K47" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L47" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M47" t="n">
-        <v>7250</v>
+        <v>7804</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44518</v>
+        <v>44855</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K48" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L48" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M48" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44488</v>
+        <v>44518</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3888,13 +3888,13 @@
         <v>60</v>
       </c>
       <c r="K49" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L49" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M49" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44816</v>
+        <v>44488</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K50" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L50" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M50" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L51" t="n">
         <v>13000</v>
       </c>
-      <c r="L51" t="n">
-        <v>14000</v>
-      </c>
       <c r="M51" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44517</v>
+        <v>44803</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L52" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L53" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M53" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
         <v>30</v>
       </c>
       <c r="K54" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L54" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M54" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44167</v>
+        <v>44487</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K55" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L55" t="n">
         <v>9000</v>
       </c>
       <c r="M55" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44484</v>
+        <v>44167</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K56" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L56" t="n">
         <v>9000</v>
       </c>
       <c r="M56" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L57" t="n">
         <v>9000</v>
       </c>
       <c r="M57" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44799</v>
+        <v>44495</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K58" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L58" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M58" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44813</v>
+        <v>44799</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K59" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L59" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M59" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44845</v>
+        <v>44813</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L60" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M60" t="n">
-        <v>9250</v>
+        <v>12500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,58 +4725,130 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E61" t="n">
+        <v>16</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>120</v>
+      </c>
+      <c r="K61" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M61" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>25</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E61" t="n">
-        <v>16</v>
-      </c>
-      <c r="F61" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
+      <c r="E62" t="n">
+        <v>16</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
         <v>60</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K62" t="n">
         <v>8000</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L62" t="n">
         <v>9000</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M62" t="n">
         <v>8500</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P61" t="n">
+      <c r="P62" t="n">
         <v>340</v>
       </c>
-      <c r="Q61" t="n">
-        <v>25</v>
-      </c>
-      <c r="R61" t="inlineStr">
+      <c r="Q62" t="n">
+        <v>25</v>
+      </c>
+      <c r="R62" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44504</v>
+        <v>44876</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M46" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44166</v>
+        <v>44504</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L47" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M47" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K48" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L48" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M48" t="n">
-        <v>7250</v>
+        <v>7804</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44518</v>
+        <v>44855</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K49" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L49" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M49" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44488</v>
+        <v>44518</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3960,13 +3960,13 @@
         <v>60</v>
       </c>
       <c r="K50" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L50" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M50" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44816</v>
+        <v>44488</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K51" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L51" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M51" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K52" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L52" t="n">
         <v>13000</v>
       </c>
-      <c r="L52" t="n">
-        <v>14000</v>
-      </c>
       <c r="M52" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44517</v>
+        <v>44803</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K53" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L53" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M53" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L54" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M54" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>30</v>
       </c>
       <c r="K55" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L55" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M55" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44167</v>
+        <v>44487</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K56" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L56" t="n">
         <v>9000</v>
       </c>
       <c r="M56" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44484</v>
+        <v>44167</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K57" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L57" t="n">
         <v>9000</v>
       </c>
       <c r="M57" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K58" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L58" t="n">
         <v>9000</v>
       </c>
       <c r="M58" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44799</v>
+        <v>44495</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K59" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L59" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M59" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44813</v>
+        <v>44799</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K60" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L60" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M60" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44845</v>
+        <v>44813</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L61" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M61" t="n">
-        <v>9250</v>
+        <v>12500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,58 +4797,130 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E62" t="n">
+        <v>16</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>120</v>
+      </c>
+      <c r="K62" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M62" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>25</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E62" t="n">
-        <v>16</v>
-      </c>
-      <c r="F62" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
+      <c r="E63" t="n">
+        <v>16</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
         <v>60</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K63" t="n">
         <v>8000</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L63" t="n">
         <v>9000</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M63" t="n">
         <v>8500</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P62" t="n">
+      <c r="P63" t="n">
         <v>340</v>
       </c>
-      <c r="Q62" t="n">
-        <v>25</v>
-      </c>
-      <c r="R62" t="inlineStr">
+      <c r="Q63" t="n">
+        <v>25</v>
+      </c>
+      <c r="R63" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44873</v>
+        <v>44879</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K38" t="n">
         <v>6500</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44529</v>
+        <v>44873</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L39" t="n">
         <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44789</v>
+        <v>44522</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L41" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M41" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44875</v>
+        <v>44789</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L42" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M42" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44537</v>
+        <v>44875</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K43" t="n">
         <v>6500</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44806</v>
+        <v>44537</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3528,13 +3528,13 @@
         <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L44" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M44" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44526</v>
+        <v>44806</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L45" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M45" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L46" t="n">
         <v>7000</v>
       </c>
       <c r="M46" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44504</v>
+        <v>44876</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L47" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M47" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44166</v>
+        <v>44504</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L48" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M48" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K49" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L49" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M49" t="n">
-        <v>7250</v>
+        <v>7804</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44518</v>
+        <v>44855</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K50" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L50" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M50" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44488</v>
+        <v>44518</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4032,13 +4032,13 @@
         <v>60</v>
       </c>
       <c r="K51" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L51" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M51" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44816</v>
+        <v>44488</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K52" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L52" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M52" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K53" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L53" t="n">
         <v>13000</v>
       </c>
-      <c r="L53" t="n">
-        <v>14000</v>
-      </c>
       <c r="M53" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44517</v>
+        <v>44803</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L54" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M54" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L55" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M55" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
         <v>30</v>
       </c>
       <c r="K56" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L56" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M56" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44167</v>
+        <v>44487</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L57" t="n">
         <v>9000</v>
       </c>
       <c r="M57" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44484</v>
+        <v>44167</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K58" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L58" t="n">
         <v>9000</v>
       </c>
       <c r="M58" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K59" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L59" t="n">
         <v>9000</v>
       </c>
       <c r="M59" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44799</v>
+        <v>44495</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L60" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M60" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44813</v>
+        <v>44799</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K61" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L61" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M61" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44845</v>
+        <v>44813</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L62" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M62" t="n">
-        <v>9250</v>
+        <v>12500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,58 +4869,130 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E63" t="n">
+        <v>16</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>120</v>
+      </c>
+      <c r="K63" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L63" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M63" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>25</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E63" t="n">
-        <v>16</v>
-      </c>
-      <c r="F63" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
+      <c r="E64" t="n">
+        <v>16</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
         <v>60</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K64" t="n">
         <v>8000</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L64" t="n">
         <v>9000</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M64" t="n">
         <v>8500</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P63" t="n">
+      <c r="P64" t="n">
         <v>340</v>
       </c>
-      <c r="Q63" t="n">
-        <v>25</v>
-      </c>
-      <c r="R63" t="inlineStr">
+      <c r="Q64" t="n">
+        <v>25</v>
+      </c>
+      <c r="R64" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44792</v>
+        <v>44882</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M4" t="n">
-        <v>12000</v>
+        <v>7250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44847</v>
+        <v>44792</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44523</v>
+        <v>44847</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44523</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44859</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>6250</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44524</v>
+        <v>44859</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
         <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44482</v>
+        <v>44524</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44476</v>
+        <v>44482</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44809</v>
+        <v>44476</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44812</v>
+        <v>44809</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44797</v>
+        <v>44812</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1371,10 +1371,10 @@
         <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44515</v>
+        <v>44797</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44830</v>
+        <v>44515</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>9250</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44473</v>
+        <v>44830</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L17" t="n">
         <v>9500</v>
       </c>
-      <c r="L17" t="n">
-        <v>10000</v>
-      </c>
       <c r="M17" t="n">
-        <v>9750</v>
+        <v>9250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44512</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44566</v>
+        <v>44512</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,17 +1725,17 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>7000</v>
       </c>
       <c r="L19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M19" t="n">
         <v>7500</v>
       </c>
-      <c r="M19" t="n">
-        <v>7250</v>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44509</v>
+        <v>44566</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44819</v>
+        <v>44530</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44162</v>
+        <v>44819</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2016,13 +2016,13 @@
         <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>7562</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>302</v>
+        <v>500</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44837</v>
+        <v>44162</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>9000</v>
+        <v>7562</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
         <v>30</v>
       </c>
       <c r="K25" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L25" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44536</v>
+        <v>44837</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K26" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M26" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44159</v>
+        <v>44536</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
         <v>6500</v>
@@ -2310,7 +2310,7 @@
         <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>6738</v>
+        <v>6750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44540</v>
+        <v>44159</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K28" t="n">
         <v>6500</v>
@@ -2382,7 +2382,7 @@
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6750</v>
+        <v>6738</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44553</v>
+        <v>44540</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
         <v>6500</v>
@@ -2526,7 +2526,7 @@
         <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>6688</v>
+        <v>6750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44165</v>
+        <v>44160</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L31" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>8263</v>
+        <v>6688</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44519</v>
+        <v>44165</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44161</v>
+        <v>44519</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
         <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>6764</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44533</v>
+        <v>44161</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K34" t="n">
         <v>6500</v>
@@ -2814,7 +2814,7 @@
         <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>6750</v>
+        <v>6764</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L35" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44516</v>
+        <v>44491</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44448</v>
+        <v>44516</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44879</v>
+        <v>44448</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>6750</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44873</v>
+        <v>44879</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K39" t="n">
         <v>6500</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44529</v>
+        <v>44873</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L40" t="n">
         <v>7000</v>
       </c>
       <c r="M40" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44789</v>
+        <v>44522</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L42" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M42" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44875</v>
+        <v>44789</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44537</v>
+        <v>44875</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K44" t="n">
         <v>6500</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44806</v>
+        <v>44537</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3600,13 +3600,13 @@
         <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M45" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44526</v>
+        <v>44806</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L46" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M46" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3744,13 +3744,13 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L47" t="n">
         <v>7000</v>
       </c>
       <c r="M47" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44504</v>
+        <v>44876</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L48" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M48" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44166</v>
+        <v>44504</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K49" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L49" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M49" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K50" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L50" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>7250</v>
+        <v>7804</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44518</v>
+        <v>44855</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K51" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L51" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M51" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44488</v>
+        <v>44518</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4104,13 +4104,13 @@
         <v>60</v>
       </c>
       <c r="K52" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L52" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M52" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44816</v>
+        <v>44488</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K53" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L53" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M53" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K54" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L54" t="n">
         <v>13000</v>
       </c>
-      <c r="L54" t="n">
-        <v>14000</v>
-      </c>
       <c r="M54" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44517</v>
+        <v>44803</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K55" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L55" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M55" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L56" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M56" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
         <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L57" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M57" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44167</v>
+        <v>44487</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K58" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L58" t="n">
         <v>9000</v>
       </c>
       <c r="M58" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44484</v>
+        <v>44167</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K59" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L59" t="n">
         <v>9000</v>
       </c>
       <c r="M59" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K60" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L60" t="n">
         <v>9000</v>
       </c>
       <c r="M60" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44799</v>
+        <v>44495</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K61" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L61" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M61" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44813</v>
+        <v>44799</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K62" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L62" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M62" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44845</v>
+        <v>44813</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L63" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M63" t="n">
-        <v>9250</v>
+        <v>12500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,58 +4941,130 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E64" t="n">
+        <v>16</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>120</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M64" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>25</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E64" t="n">
-        <v>16</v>
-      </c>
-      <c r="F64" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
+      <c r="E65" t="n">
+        <v>16</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
         <v>60</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K65" t="n">
         <v>8000</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L65" t="n">
         <v>9000</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M65" t="n">
         <v>8500</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P64" t="n">
+      <c r="P65" t="n">
         <v>340</v>
       </c>
-      <c r="Q64" t="n">
-        <v>25</v>
-      </c>
-      <c r="R64" t="inlineStr">
+      <c r="Q65" t="n">
+        <v>25</v>
+      </c>
+      <c r="R65" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44566</v>
+        <v>44883</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
         <v>7000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44509</v>
+        <v>44566</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1944,13 +1944,13 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44819</v>
+        <v>44530</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44162</v>
+        <v>44819</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2088,13 +2088,13 @@
         <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>7562</v>
+        <v>12500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>302</v>
+        <v>500</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44837</v>
+        <v>44162</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M25" t="n">
-        <v>9000</v>
+        <v>7562</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
         <v>30</v>
       </c>
       <c r="K26" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L26" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44536</v>
+        <v>44837</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K27" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M27" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44159</v>
+        <v>44536</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
         <v>6500</v>
@@ -2382,7 +2382,7 @@
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6738</v>
+        <v>6750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44540</v>
+        <v>44159</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K29" t="n">
         <v>6500</v>
@@ -2454,7 +2454,7 @@
         <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>6750</v>
+        <v>6738</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44553</v>
+        <v>44540</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
         <v>6500</v>
@@ -2598,7 +2598,7 @@
         <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>6688</v>
+        <v>6750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44165</v>
+        <v>44160</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L32" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>8263</v>
+        <v>6688</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44519</v>
+        <v>44165</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44161</v>
+        <v>44519</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L34" t="n">
         <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>6764</v>
+        <v>6500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44533</v>
+        <v>44161</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K35" t="n">
         <v>6500</v>
@@ -2886,7 +2886,7 @@
         <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>6750</v>
+        <v>6764</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44516</v>
+        <v>44491</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44448</v>
+        <v>44516</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44879</v>
+        <v>44448</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>6750</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44873</v>
+        <v>44879</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K40" t="n">
         <v>6500</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44529</v>
+        <v>44873</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K41" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L41" t="n">
         <v>7000</v>
       </c>
       <c r="M41" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44789</v>
+        <v>44522</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L43" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44875</v>
+        <v>44789</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L44" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44537</v>
+        <v>44875</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K45" t="n">
         <v>6500</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44806</v>
+        <v>44537</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3672,13 +3672,13 @@
         <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L46" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M46" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44526</v>
+        <v>44806</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3816,13 +3816,13 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L48" t="n">
         <v>7000</v>
       </c>
       <c r="M48" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44504</v>
+        <v>44876</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L49" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M49" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44166</v>
+        <v>44504</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K50" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L50" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M50" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K51" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L51" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M51" t="n">
-        <v>7250</v>
+        <v>7804</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44518</v>
+        <v>44855</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K52" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L52" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M52" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44488</v>
+        <v>44518</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4176,13 +4176,13 @@
         <v>60</v>
       </c>
       <c r="K53" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L53" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M53" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44816</v>
+        <v>44488</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K54" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L54" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M54" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K55" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L55" t="n">
         <v>13000</v>
       </c>
-      <c r="L55" t="n">
-        <v>14000</v>
-      </c>
       <c r="M55" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44517</v>
+        <v>44803</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L56" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M56" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44487</v>
+        <v>44517</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L57" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M57" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
         <v>30</v>
       </c>
       <c r="K58" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L58" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M58" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44167</v>
+        <v>44487</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K59" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L59" t="n">
         <v>9000</v>
       </c>
       <c r="M59" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44484</v>
+        <v>44167</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L60" t="n">
         <v>9000</v>
       </c>
       <c r="M60" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K61" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L61" t="n">
         <v>9000</v>
       </c>
       <c r="M61" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44799</v>
+        <v>44495</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K62" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L62" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M62" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44813</v>
+        <v>44799</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K63" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L63" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M63" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44845</v>
+        <v>44813</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K64" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L64" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M64" t="n">
-        <v>9250</v>
+        <v>12500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,58 +5013,130 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E65" t="n">
+        <v>16</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>120</v>
+      </c>
+      <c r="K65" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M65" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>25</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E65" t="n">
-        <v>16</v>
-      </c>
-      <c r="F65" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
+      <c r="E66" t="n">
+        <v>16</v>
+      </c>
+      <c r="F66" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
         <v>60</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K66" t="n">
         <v>8000</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L66" t="n">
         <v>9000</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M66" t="n">
         <v>8500</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P65" t="n">
+      <c r="P66" t="n">
         <v>340</v>
       </c>
-      <c r="Q65" t="n">
-        <v>25</v>
-      </c>
-      <c r="R65" t="inlineStr">
+      <c r="Q66" t="n">
+        <v>25</v>
+      </c>
+      <c r="R66" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44860</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44529</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -576,13 +576,13 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L3" t="n">
         <v>7000</v>
       </c>
-      <c r="L3" t="n">
-        <v>8000</v>
-      </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44882</v>
+        <v>44509</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44792</v>
+        <v>44166</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>7804</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>480</v>
+        <v>312</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44847</v>
+        <v>44482</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
         <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44523</v>
+        <v>44845</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M7" t="n">
-        <v>6500</v>
+        <v>9250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>44883</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>7250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44859</v>
+        <v>44516</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44524</v>
+        <v>44876</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L10" t="n">
         <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44482</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44476</v>
+        <v>44882</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L12" t="n">
         <v>7500</v>
       </c>
-      <c r="L12" t="n">
-        <v>8000</v>
-      </c>
       <c r="M12" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44809</v>
+        <v>44803</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44812</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44797</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44515</v>
+        <v>44530</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L16" t="n">
         <v>7000</v>
       </c>
-      <c r="L16" t="n">
-        <v>8000</v>
-      </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44830</v>
+        <v>44515</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>9250</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44816</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44512</v>
+        <v>44799</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M19" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44883</v>
+        <v>44159</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="K20" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L20" t="n">
         <v>7000</v>
       </c>
-      <c r="L20" t="n">
-        <v>7500</v>
-      </c>
       <c r="M20" t="n">
-        <v>7250</v>
+        <v>6738</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44566</v>
+        <v>44518</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>60</v>
       </c>
       <c r="K21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L21" t="n">
         <v>7000</v>
       </c>
-      <c r="L21" t="n">
-        <v>7500</v>
-      </c>
       <c r="M21" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44509</v>
+        <v>44504</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
         <v>8000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44530</v>
+        <v>44789</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44819</v>
+        <v>44487</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44162</v>
+        <v>44487</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K25" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L25" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>7562</v>
+        <v>9000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44837</v>
+        <v>44830</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
         <v>9000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M26" t="n">
-        <v>9000</v>
+        <v>9250</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44837</v>
+        <v>44855</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K27" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L27" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M27" t="n">
-        <v>9500</v>
+        <v>7250</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44536</v>
+        <v>44524</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44159</v>
+        <v>44519</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
         <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>6738</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44540</v>
+        <v>44511</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2520,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44553</v>
+        <v>44566</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K31" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M31" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,17 +2733,17 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
         <v>8000</v>
       </c>
       <c r="L33" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M33" t="n">
         <v>8500</v>
       </c>
-      <c r="M33" t="n">
-        <v>8263</v>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44519</v>
+        <v>44873</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2808,13 +2808,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L34" t="n">
         <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44161</v>
+        <v>44540</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
         <v>6500</v>
@@ -2886,7 +2886,7 @@
         <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>6764</v>
+        <v>6750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44533</v>
+        <v>44448</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>6750</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44491</v>
+        <v>44473</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3024,13 +3024,13 @@
         <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L37" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44516</v>
+        <v>44491</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44448</v>
+        <v>44812</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3168,13 +3168,13 @@
         <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44879</v>
+        <v>44859</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3240,13 +3240,13 @@
         <v>120</v>
       </c>
       <c r="K40" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L40" t="n">
         <v>6500</v>
       </c>
-      <c r="L40" t="n">
-        <v>7000</v>
-      </c>
       <c r="M40" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44873</v>
+        <v>44819</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3312,13 +3312,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L41" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44529</v>
+        <v>44879</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K42" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L42" t="n">
         <v>7000</v>
       </c>
       <c r="M42" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44522</v>
+        <v>44792</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44789</v>
+        <v>44813</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M44" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44875</v>
+        <v>44809</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M45" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44537</v>
+        <v>44489</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3672,13 +3672,13 @@
         <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44806</v>
+        <v>44517</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L47" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M47" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44526</v>
+        <v>44537</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L48" t="n">
         <v>7000</v>
       </c>
       <c r="M48" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44876</v>
+        <v>44512</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3888,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L49" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M49" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44504</v>
+        <v>44797</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3960,13 +3960,13 @@
         <v>60</v>
       </c>
       <c r="K50" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L50" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M50" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="K51" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L51" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M51" t="n">
-        <v>7804</v>
+        <v>8263</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44855</v>
+        <v>44806</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K52" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L52" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>7250</v>
+        <v>13500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>290</v>
+        <v>540</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44518</v>
+        <v>44476</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K53" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L53" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M53" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44488</v>
+        <v>44536</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K54" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L54" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M54" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44816</v>
+        <v>44847</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4320,13 +4320,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L55" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M55" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44803</v>
+        <v>44860</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K56" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L56" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M56" t="n">
-        <v>13500</v>
+        <v>6250</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K57" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L57" t="n">
         <v>7000</v>
       </c>
       <c r="M57" t="n">
-        <v>6500</v>
+        <v>6764</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44487</v>
+        <v>44466</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K58" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L58" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M58" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K59" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L59" t="n">
         <v>9000</v>
       </c>
       <c r="M59" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L60" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M60" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44484</v>
+        <v>44495</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K61" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L61" t="n">
         <v>9000</v>
       </c>
       <c r="M61" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K62" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L62" t="n">
         <v>9000</v>
       </c>
       <c r="M62" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44799</v>
+        <v>44162</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K63" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L63" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M63" t="n">
-        <v>11000</v>
+        <v>7562</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>440</v>
+        <v>302</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44813</v>
+        <v>44533</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K64" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L64" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M64" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44845</v>
+        <v>44837</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K65" t="n">
         <v>9000</v>
       </c>
       <c r="L65" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M65" t="n">
-        <v>9250</v>
+        <v>9000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44489</v>
+        <v>44837</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K66" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L66" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M66" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44540</v>
+        <v>44893</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K35" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M35" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44448</v>
+        <v>44540</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>6750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>580</v>
+        <v>270</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44473</v>
+        <v>44448</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3024,13 +3024,13 @@
         <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44491</v>
+        <v>44473</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3096,13 +3096,13 @@
         <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44812</v>
+        <v>44491</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3168,13 +3168,13 @@
         <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44859</v>
+        <v>44812</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L40" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M40" t="n">
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44819</v>
+        <v>44859</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K41" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M41" t="n">
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44879</v>
+        <v>44819</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K42" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L42" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M42" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44792</v>
+        <v>44879</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K43" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L43" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44813</v>
+        <v>44792</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
         <v>12000</v>
       </c>
       <c r="L44" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44809</v>
+        <v>44813</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
         <v>12000</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44489</v>
+        <v>44809</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3672,13 +3672,13 @@
         <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M46" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44517</v>
+        <v>44489</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L47" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M47" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44537</v>
+        <v>44517</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L48" t="n">
         <v>7000</v>
       </c>
       <c r="M48" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44512</v>
+        <v>44537</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K49" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L49" t="n">
         <v>7000</v>
       </c>
-      <c r="L49" t="n">
-        <v>8000</v>
-      </c>
       <c r="M49" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44797</v>
+        <v>44512</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L50" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44165</v>
+        <v>44797</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K51" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L51" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M51" t="n">
-        <v>8263</v>
+        <v>12000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44806</v>
+        <v>44165</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K52" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L52" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="M52" t="n">
-        <v>13500</v>
+        <v>8263</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>540</v>
+        <v>331</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44476</v>
+        <v>44806</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K53" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L53" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M53" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44536</v>
+        <v>44476</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K54" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L54" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M54" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44847</v>
+        <v>44536</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4320,13 +4320,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L55" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M55" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44860</v>
+        <v>44847</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K56" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L56" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M56" t="n">
-        <v>6250</v>
+        <v>9000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44161</v>
+        <v>44860</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="K57" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L57" t="n">
         <v>6500</v>
       </c>
-      <c r="L57" t="n">
-        <v>7000</v>
-      </c>
       <c r="M57" t="n">
-        <v>6764</v>
+        <v>6250</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44466</v>
+        <v>44161</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K58" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L58" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M58" t="n">
-        <v>11500</v>
+        <v>6764</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>460</v>
+        <v>271</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4608,13 +4608,13 @@
         <v>60</v>
       </c>
       <c r="K59" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L59" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M59" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44522</v>
+        <v>44488</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L60" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M60" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44495</v>
+        <v>44522</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L61" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M61" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44484</v>
+        <v>44495</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K62" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L62" t="n">
         <v>9000</v>
       </c>
       <c r="M62" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44162</v>
+        <v>44484</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K63" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L63" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M63" t="n">
-        <v>7562</v>
+        <v>8750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4968,13 +4968,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L64" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M64" t="n">
-        <v>6750</v>
+        <v>7562</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44837</v>
+        <v>44533</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K65" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L65" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M65" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5105,38 +5105,110 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
         <v>30</v>
       </c>
       <c r="K66" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>25</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="E67" t="n">
+        <v>16</v>
+      </c>
+      <c r="F67" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>30</v>
+      </c>
+      <c r="K67" t="n">
         <v>9500</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L67" t="n">
         <v>9500</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M67" t="n">
         <v>9500</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P66" t="n">
+      <c r="P67" t="n">
         <v>380</v>
       </c>
-      <c r="Q66" t="n">
-        <v>25</v>
-      </c>
-      <c r="R66" t="inlineStr">
+      <c r="Q67" t="n">
+        <v>25</v>
+      </c>
+      <c r="R67" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44167</v>
+        <v>44895</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2736,13 +2736,13 @@
         <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44873</v>
+        <v>44167</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44893</v>
+        <v>44873</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L35" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>9250</v>
+        <v>6750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44540</v>
+        <v>44893</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K36" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M36" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44448</v>
+        <v>44540</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>6750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>580</v>
+        <v>270</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44473</v>
+        <v>44448</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3096,13 +3096,13 @@
         <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44491</v>
+        <v>44473</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3168,13 +3168,13 @@
         <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L39" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44812</v>
+        <v>44491</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3240,13 +3240,13 @@
         <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44859</v>
+        <v>44812</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K41" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L41" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44819</v>
+        <v>44859</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K42" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L42" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M42" t="n">
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44879</v>
+        <v>44819</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K43" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M43" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44792</v>
+        <v>44879</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K44" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M44" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44813</v>
+        <v>44792</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K45" t="n">
         <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M45" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44809</v>
+        <v>44813</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
         <v>12000</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44489</v>
+        <v>44809</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3744,13 +3744,13 @@
         <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L47" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44517</v>
+        <v>44489</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L48" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M48" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44537</v>
+        <v>44517</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L49" t="n">
         <v>7000</v>
       </c>
       <c r="M49" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44512</v>
+        <v>44537</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K50" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L50" t="n">
         <v>7000</v>
       </c>
-      <c r="L50" t="n">
-        <v>8000</v>
-      </c>
       <c r="M50" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44797</v>
+        <v>44512</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L51" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M51" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44165</v>
+        <v>44797</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K52" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L52" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M52" t="n">
-        <v>8263</v>
+        <v>12000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44806</v>
+        <v>44165</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K53" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L53" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="M53" t="n">
-        <v>13500</v>
+        <v>8263</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>540</v>
+        <v>331</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44476</v>
+        <v>44806</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K54" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L54" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M54" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44536</v>
+        <v>44476</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K55" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L55" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M55" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44847</v>
+        <v>44536</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4392,13 +4392,13 @@
         <v>80</v>
       </c>
       <c r="K56" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L56" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M56" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44860</v>
+        <v>44847</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K57" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L57" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M57" t="n">
-        <v>6250</v>
+        <v>9000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44161</v>
+        <v>44860</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="K58" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L58" t="n">
         <v>6500</v>
       </c>
-      <c r="L58" t="n">
-        <v>7000</v>
-      </c>
       <c r="M58" t="n">
-        <v>6764</v>
+        <v>6250</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44466</v>
+        <v>44161</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K59" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L59" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M59" t="n">
-        <v>11500</v>
+        <v>6764</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>460</v>
+        <v>271</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4680,13 +4680,13 @@
         <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L60" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M60" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44522</v>
+        <v>44488</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K61" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L61" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M61" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44495</v>
+        <v>44522</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L62" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M62" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44484</v>
+        <v>44495</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K63" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L63" t="n">
         <v>9000</v>
       </c>
       <c r="M63" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44162</v>
+        <v>44484</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K64" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L64" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M64" t="n">
-        <v>7562</v>
+        <v>8750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5040,13 +5040,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L65" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M65" t="n">
-        <v>6750</v>
+        <v>7562</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44837</v>
+        <v>44533</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K66" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L66" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M66" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5177,38 +5177,110 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
         <v>30</v>
       </c>
       <c r="K67" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M67" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>25</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="E68" t="n">
+        <v>16</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>30</v>
+      </c>
+      <c r="K68" t="n">
         <v>9500</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L68" t="n">
         <v>9500</v>
       </c>
-      <c r="M67" t="n">
+      <c r="M68" t="n">
         <v>9500</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P67" t="n">
+      <c r="P68" t="n">
         <v>380</v>
       </c>
-      <c r="Q67" t="n">
-        <v>25</v>
-      </c>
-      <c r="R67" t="inlineStr">
+      <c r="Q68" t="n">
+        <v>25</v>
+      </c>
+      <c r="R68" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44792</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44529</v>
+        <v>44484</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44509</v>
+        <v>44529</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -648,13 +648,13 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>7804</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44482</v>
+        <v>44473</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44845</v>
+        <v>44160</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L7" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>9250</v>
+        <v>6688</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44883</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,17 +933,17 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
         <v>7000</v>
       </c>
       <c r="L8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M8" t="n">
         <v>7500</v>
       </c>
-      <c r="M8" t="n">
-        <v>7250</v>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44516</v>
+        <v>44167</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44876</v>
+        <v>44845</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M10" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
         <v>6500</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44882</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L12" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>7250</v>
+        <v>7804</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44797</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44504</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44530</v>
+        <v>44165</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>8263</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44515</v>
+        <v>44466</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44816</v>
+        <v>44518</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44799</v>
+        <v>44812</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44159</v>
+        <v>44819</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>6738</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44518</v>
+        <v>44566</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44504</v>
+        <v>44553</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44789</v>
+        <v>44809</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2016,13 +2016,13 @@
         <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44830</v>
+        <v>44162</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>9250</v>
+        <v>7562</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44855</v>
+        <v>44806</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M27" t="n">
-        <v>7250</v>
+        <v>13500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>290</v>
+        <v>540</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44524</v>
+        <v>44495</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44519</v>
+        <v>44859</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K29" t="n">
         <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44511</v>
+        <v>44526</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2520,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L30" t="n">
         <v>7000</v>
       </c>
-      <c r="L30" t="n">
-        <v>8000</v>
-      </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44566</v>
+        <v>44813</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L31" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>7250</v>
+        <v>12500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44160</v>
+        <v>44489</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K32" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>6688</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44895</v>
+        <v>44876</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L33" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44167</v>
+        <v>44879</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44873</v>
+        <v>44895</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M35" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44893</v>
+        <v>44855</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2952,13 +2952,13 @@
         <v>120</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M36" t="n">
-        <v>9250</v>
+        <v>7250</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44540</v>
+        <v>44533</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
         <v>6500</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44448</v>
+        <v>44516</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44473</v>
+        <v>44509</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44812</v>
+        <v>44873</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K41" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M41" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44859</v>
+        <v>44491</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L42" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44819</v>
+        <v>44476</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K43" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L43" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44879</v>
+        <v>44837</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K44" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L44" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44792</v>
+        <v>44837</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K45" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L45" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M45" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44813</v>
+        <v>44860</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K46" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L46" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M46" t="n">
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44809</v>
+        <v>44816</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K47" t="n">
         <v>12000</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44489</v>
+        <v>44883</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K48" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L48" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M48" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44517</v>
+        <v>44882</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K49" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L49" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M49" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44537</v>
+        <v>44159</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K50" t="n">
         <v>6500</v>
@@ -3966,7 +3966,7 @@
         <v>7000</v>
       </c>
       <c r="M50" t="n">
-        <v>6750</v>
+        <v>6738</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44512</v>
+        <v>44875</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K51" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L51" t="n">
         <v>7000</v>
       </c>
-      <c r="L51" t="n">
-        <v>8000</v>
-      </c>
       <c r="M51" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44797</v>
+        <v>44847</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K52" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L52" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M52" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44165</v>
+        <v>44530</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L53" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M53" t="n">
-        <v>8263</v>
+        <v>6500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44806</v>
+        <v>44515</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L54" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M54" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44476</v>
+        <v>44540</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L55" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M55" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44536</v>
+        <v>44523</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4392,13 +4392,13 @@
         <v>80</v>
       </c>
       <c r="K56" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L56" t="n">
         <v>7000</v>
       </c>
       <c r="M56" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44847</v>
+        <v>44893</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K57" t="n">
         <v>9000</v>
       </c>
       <c r="L57" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M57" t="n">
-        <v>9000</v>
+        <v>9250</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44860</v>
+        <v>44789</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K58" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L58" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M58" t="n">
-        <v>6250</v>
+        <v>11500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44161</v>
+        <v>44830</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L59" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M59" t="n">
-        <v>6764</v>
+        <v>9250</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44466</v>
+        <v>44512</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L60" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M60" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44488</v>
+        <v>44517</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L61" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M61" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44522</v>
+        <v>44803</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K62" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L62" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M62" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44495</v>
+        <v>44482</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K63" t="n">
         <v>8000</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44484</v>
+        <v>44524</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K64" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L64" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M64" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K65" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L65" t="n">
         <v>7000</v>
       </c>
-      <c r="L65" t="n">
-        <v>8000</v>
-      </c>
       <c r="M65" t="n">
-        <v>7562</v>
+        <v>6750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44533</v>
+        <v>44161</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K66" t="n">
         <v>6500</v>
@@ -5118,7 +5118,7 @@
         <v>7000</v>
       </c>
       <c r="M66" t="n">
-        <v>6750</v>
+        <v>6764</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44837</v>
+        <v>44448</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K67" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L67" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M67" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44837</v>
+        <v>44519</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L68" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M68" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44489</v>
+        <v>44897</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>12250</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44876</v>
+        <v>44489</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44879</v>
+        <v>44876</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
         <v>6500</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44895</v>
+        <v>44879</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K35" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44855</v>
+        <v>44895</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L36" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M36" t="n">
-        <v>7250</v>
+        <v>12000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44533</v>
+        <v>44855</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K37" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M37" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44516</v>
+        <v>44533</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L38" t="n">
         <v>7000</v>
       </c>
-      <c r="L38" t="n">
-        <v>8000</v>
-      </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3168,13 +3168,13 @@
         <v>100</v>
       </c>
       <c r="K39" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L39" t="n">
         <v>8000</v>
       </c>
-      <c r="L39" t="n">
-        <v>9000</v>
-      </c>
       <c r="M39" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44522</v>
+        <v>44509</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3240,13 +3240,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44873</v>
+        <v>44522</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L41" t="n">
         <v>7000</v>
       </c>
       <c r="M41" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44491</v>
+        <v>44873</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K42" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L42" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M42" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44476</v>
+        <v>44491</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44837</v>
+        <v>44476</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K44" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M44" t="n">
-        <v>9000</v>
+        <v>7750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
         <v>30</v>
       </c>
       <c r="K45" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L45" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44860</v>
+        <v>44837</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L46" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M46" t="n">
-        <v>6250</v>
+        <v>9500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44816</v>
+        <v>44860</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K47" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L47" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M47" t="n">
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44883</v>
+        <v>44816</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K48" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L48" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>7250</v>
+        <v>12500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44159</v>
+        <v>44882</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="K50" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L50" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M50" t="n">
-        <v>6738</v>
+        <v>7250</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44875</v>
+        <v>44159</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="K51" t="n">
         <v>6500</v>
@@ -4038,7 +4038,7 @@
         <v>7000</v>
       </c>
       <c r="M51" t="n">
-        <v>6750</v>
+        <v>6738</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44847</v>
+        <v>44875</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K52" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L52" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M52" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44530</v>
+        <v>44847</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K53" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L53" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M53" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44515</v>
+        <v>44530</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4248,13 +4248,13 @@
         <v>100</v>
       </c>
       <c r="K54" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L54" t="n">
         <v>7000</v>
       </c>
-      <c r="L54" t="n">
-        <v>8000</v>
-      </c>
       <c r="M54" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44540</v>
+        <v>44515</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4320,13 +4320,13 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L55" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M55" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44523</v>
+        <v>44540</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L56" t="n">
         <v>7000</v>
       </c>
       <c r="M56" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44893</v>
+        <v>44523</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K57" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L57" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M57" t="n">
-        <v>9250</v>
+        <v>6500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44789</v>
+        <v>44893</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K58" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L58" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M58" t="n">
-        <v>11500</v>
+        <v>9250</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44830</v>
+        <v>44789</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K59" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L59" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M59" t="n">
-        <v>9250</v>
+        <v>11500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44512</v>
+        <v>44830</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4680,13 +4680,13 @@
         <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L60" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M60" t="n">
-        <v>7500</v>
+        <v>9250</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44517</v>
+        <v>44512</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4752,13 +4752,13 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L61" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M61" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44803</v>
+        <v>44517</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L62" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M62" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44482</v>
+        <v>44803</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K63" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L63" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M63" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44524</v>
+        <v>44482</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K64" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L64" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M64" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44537</v>
+        <v>44524</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L65" t="n">
         <v>7000</v>
       </c>
       <c r="M65" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44161</v>
+        <v>44537</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K66" t="n">
         <v>6500</v>
@@ -5118,7 +5118,7 @@
         <v>7000</v>
       </c>
       <c r="M66" t="n">
-        <v>6764</v>
+        <v>6750</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44448</v>
+        <v>44161</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K67" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L67" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M67" t="n">
-        <v>14500</v>
+        <v>6764</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>580</v>
+        <v>271</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,58 +5229,130 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="E68" t="n">
+        <v>16</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>60</v>
+      </c>
+      <c r="K68" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M68" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>580</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>25</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
         <v>44519</v>
       </c>
-      <c r="E68" t="n">
-        <v>16</v>
-      </c>
-      <c r="F68" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
+      <c r="E69" t="n">
+        <v>16</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
         <v>80</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K69" t="n">
         <v>6000</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L69" t="n">
         <v>7000</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M69" t="n">
         <v>6500</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P68" t="n">
+      <c r="P69" t="n">
         <v>260</v>
       </c>
-      <c r="Q68" t="n">
-        <v>25</v>
-      </c>
-      <c r="R68" t="inlineStr">
+      <c r="Q69" t="n">
+        <v>25</v>
+      </c>
+      <c r="R69" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44875</v>
+        <v>44900</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K52" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L52" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M52" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44847</v>
+        <v>44875</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K53" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L53" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M53" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44530</v>
+        <v>44847</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K54" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L54" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M54" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44515</v>
+        <v>44530</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4320,13 +4320,13 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L55" t="n">
         <v>7000</v>
       </c>
-      <c r="L55" t="n">
-        <v>8000</v>
-      </c>
       <c r="M55" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44540</v>
+        <v>44515</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4392,13 +4392,13 @@
         <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L56" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M56" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44523</v>
+        <v>44540</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L57" t="n">
         <v>7000</v>
       </c>
       <c r="M57" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44893</v>
+        <v>44523</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K58" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L58" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M58" t="n">
-        <v>9250</v>
+        <v>6500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44789</v>
+        <v>44893</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K59" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L59" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M59" t="n">
-        <v>11500</v>
+        <v>9250</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44830</v>
+        <v>44789</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L60" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M60" t="n">
-        <v>9250</v>
+        <v>11500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44512</v>
+        <v>44830</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4752,13 +4752,13 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L61" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M61" t="n">
-        <v>7500</v>
+        <v>9250</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44517</v>
+        <v>44512</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4824,13 +4824,13 @@
         <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L62" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M62" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44803</v>
+        <v>44517</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L63" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M63" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44482</v>
+        <v>44803</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K64" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L64" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M64" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44524</v>
+        <v>44482</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K65" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L65" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M65" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44537</v>
+        <v>44524</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K66" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L66" t="n">
         <v>7000</v>
       </c>
       <c r="M66" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44161</v>
+        <v>44537</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K67" t="n">
         <v>6500</v>
@@ -5190,7 +5190,7 @@
         <v>7000</v>
       </c>
       <c r="M67" t="n">
-        <v>6764</v>
+        <v>6750</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44448</v>
+        <v>44161</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K68" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L68" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M68" t="n">
-        <v>14500</v>
+        <v>6764</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>580</v>
+        <v>271</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,58 +5301,130 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="E69" t="n">
+        <v>16</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>60</v>
+      </c>
+      <c r="K69" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M69" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>580</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>25</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
         <v>44519</v>
       </c>
-      <c r="E69" t="n">
-        <v>16</v>
-      </c>
-      <c r="F69" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
+      <c r="E70" t="n">
+        <v>16</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
         <v>80</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K70" t="n">
         <v>6000</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L70" t="n">
         <v>7000</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M70" t="n">
         <v>6500</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P69" t="n">
+      <c r="P70" t="n">
         <v>260</v>
       </c>
-      <c r="Q69" t="n">
-        <v>25</v>
-      </c>
-      <c r="R69" t="inlineStr">
+      <c r="Q70" t="n">
+        <v>25</v>
+      </c>
+      <c r="R70" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44792</v>
+        <v>44789</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
         <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44484</v>
+        <v>44873</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44529</v>
+        <v>44524</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44473</v>
+        <v>44860</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M6" t="n">
-        <v>9750</v>
+        <v>6250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44160</v>
+        <v>44816</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -864,13 +864,13 @@
         <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>6688</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>268</v>
+        <v>500</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44167</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M10" t="n">
-        <v>9250</v>
+        <v>6250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44515</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
         <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>7804</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44799</v>
+        <v>44900</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44797</v>
+        <v>44523</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44504</v>
+        <v>44519</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44165</v>
+        <v>44537</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L16" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>8263</v>
+        <v>6750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44466</v>
+        <v>44165</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K17" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M17" t="n">
-        <v>11500</v>
+        <v>8263</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>460</v>
+        <v>331</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44518</v>
+        <v>44845</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>9250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44812</v>
+        <v>44540</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44819</v>
+        <v>44830</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>9250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44566</v>
+        <v>44876</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L21" t="n">
         <v>7000</v>
       </c>
-      <c r="L21" t="n">
-        <v>7500</v>
-      </c>
       <c r="M21" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44553</v>
+        <v>44489</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K22" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44809</v>
+        <v>44855</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>7250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
         <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44487</v>
+        <v>44159</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K25" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>9000</v>
+        <v>6738</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2232,13 +2232,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L26" t="n">
         <v>7000</v>
       </c>
-      <c r="L26" t="n">
-        <v>8000</v>
-      </c>
       <c r="M26" t="n">
-        <v>7562</v>
+        <v>6688</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44806</v>
+        <v>44522</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L27" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44495</v>
+        <v>44484</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L28" t="n">
         <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44859</v>
+        <v>44530</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
         <v>6000</v>
       </c>
       <c r="L29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M29" t="n">
         <v>6500</v>
       </c>
-      <c r="M29" t="n">
-        <v>6250</v>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44813</v>
+        <v>44517</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2592,13 +2592,13 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44897</v>
+        <v>44166</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K32" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L32" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>12250</v>
+        <v>7804</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>490</v>
+        <v>312</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K33" t="n">
         <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44876</v>
+        <v>44487</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K34" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44879</v>
+        <v>44803</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>6750</v>
+        <v>13500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44895</v>
+        <v>44875</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K36" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L36" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44855</v>
+        <v>44161</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K37" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L37" t="n">
         <v>7000</v>
       </c>
-      <c r="L37" t="n">
-        <v>7500</v>
-      </c>
       <c r="M37" t="n">
-        <v>7250</v>
+        <v>6764</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44533</v>
+        <v>44488</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44516</v>
+        <v>44837</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44509</v>
+        <v>44837</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K40" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44522</v>
+        <v>44512</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3312,13 +3312,13 @@
         <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L41" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M41" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44873</v>
+        <v>44518</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L42" t="n">
         <v>7000</v>
       </c>
       <c r="M42" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44491</v>
+        <v>44812</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3456,13 +3456,13 @@
         <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M43" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44476</v>
+        <v>44482</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K44" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44837</v>
+        <v>44897</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K45" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="M45" t="n">
-        <v>9000</v>
+        <v>12250</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>360</v>
+        <v>490</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44837</v>
+        <v>44792</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L46" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M46" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44860</v>
+        <v>44509</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L47" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M47" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44816</v>
+        <v>44476</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K48" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M48" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44883</v>
+        <v>44893</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3888,13 +3888,13 @@
         <v>120</v>
       </c>
       <c r="K49" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L49" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M49" t="n">
-        <v>7250</v>
+        <v>9250</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44882</v>
+        <v>44466</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K50" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L50" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M50" t="n">
-        <v>7250</v>
+        <v>11500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>290</v>
+        <v>460</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44159</v>
+        <v>44448</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K51" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L51" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>6738</v>
+        <v>14500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44900</v>
+        <v>44529</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L52" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M52" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44875</v>
+        <v>44908</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K53" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L53" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M53" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44847</v>
+        <v>44799</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K54" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L54" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M54" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44530</v>
+        <v>44511</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4320,13 +4320,13 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L55" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M55" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44515</v>
+        <v>44882</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K56" t="n">
         <v>7000</v>
       </c>
       <c r="L56" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M56" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44540</v>
+        <v>44797</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K57" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L57" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M57" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44523</v>
+        <v>44566</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K58" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L58" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M58" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K59" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L59" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M59" t="n">
-        <v>9250</v>
+        <v>12000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>370</v>
+        <v>480</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44789</v>
+        <v>44491</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4680,13 +4680,13 @@
         <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L60" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M60" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44830</v>
+        <v>44847</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K61" t="n">
         <v>9000</v>
       </c>
       <c r="L61" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M61" t="n">
-        <v>9250</v>
+        <v>9000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44512</v>
+        <v>44536</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K62" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L62" t="n">
         <v>7000</v>
       </c>
-      <c r="L62" t="n">
-        <v>8000</v>
-      </c>
       <c r="M62" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4896,13 +4896,13 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L63" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M63" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44803</v>
+        <v>44162</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K64" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L64" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M64" t="n">
-        <v>13500</v>
+        <v>7562</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>540</v>
+        <v>302</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44482</v>
+        <v>44883</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5040,13 +5040,13 @@
         <v>120</v>
       </c>
       <c r="K65" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L65" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M65" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44524</v>
+        <v>44879</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K66" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L66" t="n">
         <v>7000</v>
       </c>
       <c r="M66" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44537</v>
+        <v>44533</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K67" t="n">
         <v>6500</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44161</v>
+        <v>44813</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K68" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L68" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M68" t="n">
-        <v>6764</v>
+        <v>12500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>271</v>
+        <v>500</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44448</v>
+        <v>44819</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K69" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L69" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M69" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44519</v>
+        <v>44809</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K70" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L70" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M70" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,16 +5415,88 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
       </c>
       <c r="R70" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="E71" t="n">
+        <v>16</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>60</v>
+      </c>
+      <c r="K71" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M71" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>25</v>
+      </c>
+      <c r="R71" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44537</v>
+        <v>44910</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44165</v>
+        <v>44537</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L17" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>8263</v>
+        <v>6750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44845</v>
+        <v>44165</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M18" t="n">
-        <v>9250</v>
+        <v>8263</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44540</v>
+        <v>44845</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M19" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44830</v>
+        <v>44540</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1800,13 +1800,13 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L20" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>9250</v>
+        <v>6750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44876</v>
+        <v>44830</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M21" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44489</v>
+        <v>44876</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44855</v>
+        <v>44489</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44504</v>
+        <v>44855</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44159</v>
+        <v>44504</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K26" t="n">
         <v>6500</v>
@@ -2238,7 +2238,7 @@
         <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>6688</v>
+        <v>6738</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44522</v>
+        <v>44160</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L27" t="n">
         <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>6688</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44484</v>
+        <v>44522</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44530</v>
+        <v>44484</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44517</v>
+        <v>44526</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44166</v>
+        <v>44517</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>7804</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44487</v>
+        <v>44166</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L33" t="n">
         <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>8000</v>
+        <v>7804</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>30</v>
       </c>
       <c r="K34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44803</v>
+        <v>44487</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44875</v>
+        <v>44803</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M36" t="n">
-        <v>6750</v>
+        <v>13500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44161</v>
+        <v>44875</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="K37" t="n">
         <v>6500</v>
@@ -3030,7 +3030,7 @@
         <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>6764</v>
+        <v>6750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44488</v>
+        <v>44161</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>6764</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44837</v>
+        <v>44488</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
         <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>30</v>
       </c>
       <c r="K40" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L40" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44512</v>
+        <v>44837</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K41" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L41" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M41" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44518</v>
+        <v>44512</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L42" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M42" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44812</v>
+        <v>44518</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3456,13 +3456,13 @@
         <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L43" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44482</v>
+        <v>44812</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M44" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44897</v>
+        <v>44482</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3600,13 +3600,13 @@
         <v>120</v>
       </c>
       <c r="K45" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>12250</v>
+        <v>8500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44792</v>
+        <v>44897</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K46" t="n">
         <v>12000</v>
       </c>
       <c r="L46" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M46" t="n">
-        <v>12000</v>
+        <v>12250</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44509</v>
+        <v>44792</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L47" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M47" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44476</v>
+        <v>44509</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L48" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M48" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44893</v>
+        <v>44476</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K49" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L49" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M49" t="n">
-        <v>9250</v>
+        <v>7750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44466</v>
+        <v>44893</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K50" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L50" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M50" t="n">
-        <v>11500</v>
+        <v>9250</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44448</v>
+        <v>44466</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4032,13 +4032,13 @@
         <v>60</v>
       </c>
       <c r="K51" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L51" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M51" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44529</v>
+        <v>44448</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K52" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L52" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M52" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44908</v>
+        <v>44529</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L53" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M53" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44799</v>
+        <v>44908</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K54" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L54" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M54" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44511</v>
+        <v>44799</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K55" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L55" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M55" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44882</v>
+        <v>44511</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,17 +4389,17 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K56" t="n">
         <v>7000</v>
       </c>
       <c r="L56" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M56" t="n">
         <v>7500</v>
       </c>
-      <c r="M56" t="n">
-        <v>7250</v>
-      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44797</v>
+        <v>44882</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K57" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L57" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M57" t="n">
-        <v>12000</v>
+        <v>7250</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44566</v>
+        <v>44797</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4536,13 +4536,13 @@
         <v>60</v>
       </c>
       <c r="K58" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L58" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M58" t="n">
-        <v>7250</v>
+        <v>12000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44895</v>
+        <v>44566</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4608,13 +4608,13 @@
         <v>60</v>
       </c>
       <c r="K59" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L59" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M59" t="n">
-        <v>12000</v>
+        <v>7250</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44491</v>
+        <v>44895</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4680,13 +4680,13 @@
         <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L60" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M60" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44847</v>
+        <v>44491</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K61" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L61" t="n">
         <v>9000</v>
       </c>
       <c r="M61" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44536</v>
+        <v>44847</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4824,13 +4824,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L62" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M62" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44516</v>
+        <v>44536</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K63" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L63" t="n">
         <v>7000</v>
       </c>
-      <c r="L63" t="n">
-        <v>8000</v>
-      </c>
       <c r="M63" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K64" t="n">
         <v>7000</v>
@@ -4974,7 +4974,7 @@
         <v>8000</v>
       </c>
       <c r="M64" t="n">
-        <v>7562</v>
+        <v>7500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K65" t="n">
         <v>7000</v>
       </c>
       <c r="L65" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M65" t="n">
-        <v>7250</v>
+        <v>7562</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44879</v>
+        <v>44883</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5112,13 +5112,13 @@
         <v>120</v>
       </c>
       <c r="K66" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L66" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M66" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44533</v>
+        <v>44879</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K67" t="n">
         <v>6500</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44813</v>
+        <v>44533</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L68" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M68" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44819</v>
+        <v>44813</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K69" t="n">
         <v>12000</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44809</v>
+        <v>44819</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K70" t="n">
         <v>12000</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5472,31 +5472,103 @@
         <v>60</v>
       </c>
       <c r="K71" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L71" t="n">
         <v>13000</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>25</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="E72" t="n">
+        <v>16</v>
+      </c>
+      <c r="F72" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>60</v>
+      </c>
+      <c r="K72" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L72" t="n">
         <v>14000</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M72" t="n">
         <v>13500</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P71" t="n">
+      <c r="P72" t="n">
         <v>540</v>
       </c>
-      <c r="Q71" t="n">
-        <v>25</v>
-      </c>
-      <c r="R71" t="inlineStr">
+      <c r="Q72" t="n">
+        <v>25</v>
+      </c>
+      <c r="R72" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44516</v>
+        <v>44918</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4968,13 +4968,13 @@
         <v>100</v>
       </c>
       <c r="K64" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L64" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M64" t="n">
-        <v>7500</v>
+        <v>15500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>300</v>
+        <v>620</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K65" t="n">
         <v>7000</v>
@@ -5046,7 +5046,7 @@
         <v>8000</v>
       </c>
       <c r="M65" t="n">
-        <v>7562</v>
+        <v>7500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K66" t="n">
         <v>7000</v>
       </c>
       <c r="L66" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M66" t="n">
-        <v>7250</v>
+        <v>7562</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44879</v>
+        <v>44883</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5184,13 +5184,13 @@
         <v>120</v>
       </c>
       <c r="K67" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L67" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M67" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44533</v>
+        <v>44879</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K68" t="n">
         <v>6500</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44813</v>
+        <v>44533</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K69" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L69" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M69" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44819</v>
+        <v>44813</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K70" t="n">
         <v>12000</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44809</v>
+        <v>44819</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K71" t="n">
         <v>12000</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5544,31 +5544,103 @@
         <v>60</v>
       </c>
       <c r="K72" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L72" t="n">
         <v>13000</v>
       </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>25</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="E73" t="n">
+        <v>16</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>60</v>
+      </c>
+      <c r="K73" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L73" t="n">
         <v>14000</v>
       </c>
-      <c r="M72" t="n">
+      <c r="M73" t="n">
         <v>13500</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P72" t="n">
+      <c r="P73" t="n">
         <v>540</v>
       </c>
-      <c r="Q72" t="n">
-        <v>25</v>
-      </c>
-      <c r="R72" t="inlineStr">
+      <c r="Q73" t="n">
+        <v>25</v>
+      </c>
+      <c r="R73" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44789</v>
+        <v>44922</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>460</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44873</v>
+        <v>44789</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44524</v>
+        <v>44873</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L4" t="n">
         <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44495</v>
+        <v>44524</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44860</v>
+        <v>44495</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44816</v>
+        <v>44860</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44167</v>
+        <v>44816</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44167</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44859</v>
+        <v>44553</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L10" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44473</v>
+        <v>44859</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M11" t="n">
-        <v>9750</v>
+        <v>6250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44515</v>
+        <v>44473</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44900</v>
+        <v>44515</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44523</v>
+        <v>44900</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1368,13 +1368,13 @@
         <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44910</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44537</v>
+        <v>44910</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44165</v>
+        <v>44537</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L18" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>8263</v>
+        <v>6750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44845</v>
+        <v>44165</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="K19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M19" t="n">
-        <v>9250</v>
+        <v>8263</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44540</v>
+        <v>44845</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M20" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44830</v>
+        <v>44540</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L21" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>9250</v>
+        <v>6750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44876</v>
+        <v>44830</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1944,13 +1944,13 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M22" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44489</v>
+        <v>44876</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44855</v>
+        <v>44489</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44504</v>
+        <v>44855</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>44504</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>6738</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K27" t="n">
         <v>6500</v>
@@ -2310,7 +2310,7 @@
         <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>6688</v>
+        <v>6738</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44522</v>
+        <v>44160</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L28" t="n">
         <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>6688</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44484</v>
+        <v>44522</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44530</v>
+        <v>44484</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44517</v>
+        <v>44526</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44166</v>
+        <v>44517</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>7804</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44487</v>
+        <v>44166</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L34" t="n">
         <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>8000</v>
+        <v>7804</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
         <v>30</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L35" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44803</v>
+        <v>44487</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L36" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44875</v>
+        <v>44803</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M37" t="n">
-        <v>6750</v>
+        <v>13500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44161</v>
+        <v>44875</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="K38" t="n">
         <v>6500</v>
@@ -3102,7 +3102,7 @@
         <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>6764</v>
+        <v>6750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44488</v>
+        <v>44161</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K39" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L39" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>8500</v>
+        <v>6764</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44837</v>
+        <v>44488</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
         <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>30</v>
       </c>
       <c r="K41" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L41" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M41" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44512</v>
+        <v>44837</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K42" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L42" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M42" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44518</v>
+        <v>44512</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44812</v>
+        <v>44518</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3528,13 +3528,13 @@
         <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L44" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M44" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44482</v>
+        <v>44812</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M45" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44897</v>
+        <v>44482</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3672,13 +3672,13 @@
         <v>120</v>
       </c>
       <c r="K46" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>12250</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44792</v>
+        <v>44897</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K47" t="n">
         <v>12000</v>
       </c>
       <c r="L47" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M47" t="n">
-        <v>12000</v>
+        <v>12250</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44509</v>
+        <v>44792</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L48" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M48" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44476</v>
+        <v>44509</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L49" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M49" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44893</v>
+        <v>44476</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K50" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L50" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>9250</v>
+        <v>7750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44466</v>
+        <v>44893</v>
       </c>
       <c r="E51" t="n">
         <v>16</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K51" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L51" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M51" t="n">
-        <v>11500</v>
+        <v>9250</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44448</v>
+        <v>44466</v>
       </c>
       <c r="E52" t="n">
         <v>16</v>
@@ -4104,13 +4104,13 @@
         <v>60</v>
       </c>
       <c r="K52" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L52" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M52" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44529</v>
+        <v>44448</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K53" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L53" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M53" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44908</v>
+        <v>44529</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L54" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M54" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44799</v>
+        <v>44908</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K55" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L55" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M55" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44511</v>
+        <v>44799</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K56" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L56" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M56" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44882</v>
+        <v>44511</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,17 +4461,17 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
         <v>7000</v>
       </c>
       <c r="L57" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M57" t="n">
         <v>7500</v>
       </c>
-      <c r="M57" t="n">
-        <v>7250</v>
-      </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44797</v>
+        <v>44882</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K58" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L58" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M58" t="n">
-        <v>12000</v>
+        <v>7250</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44566</v>
+        <v>44797</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4608,13 +4608,13 @@
         <v>60</v>
       </c>
       <c r="K59" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L59" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M59" t="n">
-        <v>7250</v>
+        <v>12000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44895</v>
+        <v>44566</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4680,13 +4680,13 @@
         <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L60" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M60" t="n">
-        <v>12000</v>
+        <v>7250</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44491</v>
+        <v>44895</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4752,13 +4752,13 @@
         <v>60</v>
       </c>
       <c r="K61" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L61" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M61" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44847</v>
+        <v>44491</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K62" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L62" t="n">
         <v>9000</v>
       </c>
       <c r="M62" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44536</v>
+        <v>44847</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4896,13 +4896,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L63" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M63" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44918</v>
+        <v>44536</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K64" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L64" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M64" t="n">
-        <v>15500</v>
+        <v>6750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>620</v>
+        <v>270</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44516</v>
+        <v>44918</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5040,13 +5040,13 @@
         <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L65" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M65" t="n">
-        <v>7500</v>
+        <v>15500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>300</v>
+        <v>620</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K66" t="n">
         <v>7000</v>
@@ -5118,7 +5118,7 @@
         <v>8000</v>
       </c>
       <c r="M66" t="n">
-        <v>7562</v>
+        <v>7500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K67" t="n">
         <v>7000</v>
       </c>
       <c r="L67" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M67" t="n">
-        <v>7250</v>
+        <v>7562</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44879</v>
+        <v>44883</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5256,13 +5256,13 @@
         <v>120</v>
       </c>
       <c r="K68" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L68" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M68" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44533</v>
+        <v>44879</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K69" t="n">
         <v>6500</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44813</v>
+        <v>44533</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K70" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L70" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M70" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44819</v>
+        <v>44813</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K71" t="n">
         <v>12000</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44809</v>
+        <v>44819</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K72" t="n">
         <v>12000</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5616,31 +5616,103 @@
         <v>60</v>
       </c>
       <c r="K73" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L73" t="n">
         <v>13000</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>25</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="E74" t="n">
+        <v>16</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>60</v>
+      </c>
+      <c r="K74" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L74" t="n">
         <v>14000</v>
       </c>
-      <c r="M73" t="n">
+      <c r="M74" t="n">
         <v>13500</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P73" t="n">
+      <c r="P74" t="n">
         <v>540</v>
       </c>
-      <c r="Q73" t="n">
-        <v>25</v>
-      </c>
-      <c r="R73" t="inlineStr">
+      <c r="Q74" t="n">
+        <v>25</v>
+      </c>
+      <c r="R74" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44529</v>
+        <v>44924</v>
       </c>
       <c r="E54" t="n">
         <v>16</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K54" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L54" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M54" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44908</v>
+        <v>44529</v>
       </c>
       <c r="E55" t="n">
         <v>16</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L55" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M55" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44799</v>
+        <v>44908</v>
       </c>
       <c r="E56" t="n">
         <v>16</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K56" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L56" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M56" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44511</v>
+        <v>44799</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L57" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M57" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44882</v>
+        <v>44511</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -4533,17 +4533,17 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K58" t="n">
         <v>7000</v>
       </c>
       <c r="L58" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M58" t="n">
         <v>7500</v>
       </c>
-      <c r="M58" t="n">
-        <v>7250</v>
-      </c>
       <c r="N58" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44797</v>
+        <v>44882</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K59" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L59" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M59" t="n">
-        <v>12000</v>
+        <v>7250</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44566</v>
+        <v>44797</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -4680,13 +4680,13 @@
         <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L60" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M60" t="n">
-        <v>7250</v>
+        <v>12000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44895</v>
+        <v>44566</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -4752,13 +4752,13 @@
         <v>60</v>
       </c>
       <c r="K61" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L61" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M61" t="n">
-        <v>12000</v>
+        <v>7250</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44491</v>
+        <v>44895</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -4824,13 +4824,13 @@
         <v>60</v>
       </c>
       <c r="K62" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L62" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M62" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44847</v>
+        <v>44491</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K63" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L63" t="n">
         <v>9000</v>
       </c>
       <c r="M63" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44536</v>
+        <v>44847</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -4968,13 +4968,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L64" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M64" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44918</v>
+        <v>44536</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K65" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L65" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M65" t="n">
-        <v>15500</v>
+        <v>6750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>620</v>
+        <v>270</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44516</v>
+        <v>44918</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -5112,13 +5112,13 @@
         <v>100</v>
       </c>
       <c r="K66" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L66" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M66" t="n">
-        <v>7500</v>
+        <v>15500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>300</v>
+        <v>620</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K67" t="n">
         <v>7000</v>
@@ -5190,7 +5190,7 @@
         <v>8000</v>
       </c>
       <c r="M67" t="n">
-        <v>7562</v>
+        <v>7500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E68" t="n">
         <v>16</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K68" t="n">
         <v>7000</v>
       </c>
       <c r="L68" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M68" t="n">
-        <v>7250</v>
+        <v>7562</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44879</v>
+        <v>44883</v>
       </c>
       <c r="E69" t="n">
         <v>16</v>
@@ -5328,13 +5328,13 @@
         <v>120</v>
       </c>
       <c r="K69" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L69" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M69" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44533</v>
+        <v>44879</v>
       </c>
       <c r="E70" t="n">
         <v>16</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K70" t="n">
         <v>6500</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44813</v>
+        <v>44533</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K71" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L71" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M71" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44819</v>
+        <v>44813</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K72" t="n">
         <v>12000</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44809</v>
+        <v>44819</v>
       </c>
       <c r="E73" t="n">
         <v>16</v>
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K73" t="n">
         <v>12000</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -5688,31 +5688,103 @@
         <v>60</v>
       </c>
       <c r="K74" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L74" t="n">
         <v>13000</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>25</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="E75" t="n">
+        <v>16</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>60</v>
+      </c>
+      <c r="K75" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L75" t="n">
         <v>14000</v>
       </c>
-      <c r="M74" t="n">
+      <c r="M75" t="n">
         <v>13500</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P74" t="n">
+      <c r="P75" t="n">
         <v>540</v>
       </c>
-      <c r="Q74" t="n">
-        <v>25</v>
-      </c>
-      <c r="R74" t="inlineStr">
+      <c r="Q75" t="n">
+        <v>25</v>
+      </c>
+      <c r="R75" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44922</v>
+        <v>44537</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>6750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44789</v>
+        <v>44524</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44873</v>
+        <v>44813</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44524</v>
+        <v>44910</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -720,13 +720,13 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44495</v>
+        <v>44160</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>6688</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44860</v>
+        <v>44515</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44816</v>
+        <v>44792</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
         <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44512</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L9" t="n">
         <v>8000</v>
       </c>
-      <c r="L9" t="n">
-        <v>9000</v>
-      </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44837</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44859</v>
+        <v>44837</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L11" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M11" t="n">
-        <v>6250</v>
+        <v>9500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44473</v>
+        <v>44859</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M12" t="n">
-        <v>9750</v>
+        <v>6250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44515</v>
+        <v>44855</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
         <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44900</v>
+        <v>44882</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>7250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44897</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>12250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>260</v>
+        <v>490</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44162</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>7562</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44910</v>
+        <v>44908</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
         <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44537</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
         <v>6500</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44165</v>
+        <v>44819</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>8263</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>331</v>
+        <v>500</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44845</v>
+        <v>44530</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>9250</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44540</v>
+        <v>44466</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44830</v>
+        <v>44511</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1944,13 +1944,13 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>9250</v>
+        <v>7500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L23" t="n">
         <v>7000</v>
       </c>
       <c r="M23" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44489</v>
+        <v>44806</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
@@ -2088,13 +2088,13 @@
         <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44855</v>
+        <v>44924</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>7250</v>
+        <v>15000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44504</v>
+        <v>44799</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44159</v>
+        <v>44165</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K27" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M27" t="n">
-        <v>6738</v>
+        <v>8263</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44160</v>
+        <v>44803</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>6688</v>
+        <v>13500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>268</v>
+        <v>540</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44522</v>
+        <v>44484</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44484</v>
+        <v>44489</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
         <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44530</v>
+        <v>44876</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
@@ -2592,13 +2592,13 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L31" t="n">
         <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44526</v>
+        <v>44536</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L32" t="n">
         <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44517</v>
+        <v>44482</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44166</v>
+        <v>44529</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>7804</v>
+        <v>6500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44487</v>
+        <v>44860</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K35" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M35" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44487</v>
+        <v>44522</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44803</v>
+        <v>44473</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L37" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44875</v>
+        <v>44448</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>6750</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K39" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>6764</v>
+        <v>8500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44488</v>
+        <v>44509</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
         <v>8000</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44837</v>
+        <v>44166</v>
       </c>
       <c r="E41" t="n">
         <v>16</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K41" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L41" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M41" t="n">
-        <v>9000</v>
+        <v>7804</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44837</v>
+        <v>44566</v>
       </c>
       <c r="E42" t="n">
         <v>16</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L42" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M42" t="n">
-        <v>9500</v>
+        <v>7250</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44512</v>
+        <v>44540</v>
       </c>
       <c r="E43" t="n">
         <v>16</v>
@@ -3456,13 +3456,13 @@
         <v>100</v>
       </c>
       <c r="K43" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L43" t="n">
         <v>7000</v>
       </c>
-      <c r="L43" t="n">
-        <v>8000</v>
-      </c>
       <c r="M43" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44518</v>
+        <v>44900</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K44" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L44" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44812</v>
+        <v>44797</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -3603,10 +3603,10 @@
         <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M45" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44482</v>
+        <v>44517</v>
       </c>
       <c r="E46" t="n">
         <v>16</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M46" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44897</v>
+        <v>44809</v>
       </c>
       <c r="E47" t="n">
         <v>16</v>
@@ -3741,17 +3741,17 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
         <v>12000</v>
       </c>
       <c r="L47" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M47" t="n">
         <v>12500</v>
       </c>
-      <c r="M47" t="n">
-        <v>12250</v>
-      </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44792</v>
+        <v>44816</v>
       </c>
       <c r="E48" t="n">
         <v>16</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K48" t="n">
         <v>12000</v>
       </c>
       <c r="L48" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44509</v>
+        <v>44553</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
@@ -3888,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L49" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M49" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44476</v>
+        <v>44161</v>
       </c>
       <c r="E50" t="n">
         <v>16</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="K50" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L50" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M50" t="n">
-        <v>7750</v>
+        <v>6764</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
     